--- a/carriers_source_analyses/torrefied_biomass_pellets.carrier.xlsx
+++ b/carriers_source_analyses/torrefied_biomass_pellets.carrier.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/carriers_source_analyses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlottevonm/Code/etdataset/carriers_source_analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78FB655-049D-1244-B0BC-E53E3AA9861C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538D2AFE-E46D-504C-852B-9FA3E0FA63D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1860" windowWidth="27780" windowHeight="16140" tabRatio="762" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1860" windowWidth="27780" windowHeight="16140" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -22,7 +22,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId7"/>
-    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="exchange_rate_2011_2010">#REF!</definedName>
@@ -44,6 +43,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -52,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="171">
   <si>
     <t>Source</t>
   </si>
@@ -513,12 +521,6 @@
   </si>
   <si>
     <t>MJ/tonne</t>
-  </si>
-  <si>
-    <t>CO2 emission from biomass is defined as 0</t>
-  </si>
-  <si>
-    <t>Quintel definition</t>
   </si>
   <si>
     <r>
@@ -543,9 +545,6 @@
     </r>
   </si>
   <si>
-    <t>Actual CO2 emission from biomass</t>
-  </si>
-  <si>
     <t>IPCC</t>
   </si>
   <si>
@@ -631,7 +630,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="11">
+  <numFmts count="10">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
@@ -642,7 +641,6 @@
     <numFmt numFmtId="171" formatCode="0.0000000000000"/>
     <numFmt numFmtId="172" formatCode="#,##0.000000000"/>
     <numFmt numFmtId="173" formatCode="0.00000000000000"/>
-    <numFmt numFmtId="174" formatCode="0.00000000000000000"/>
   </numFmts>
   <fonts count="45">
     <font>
@@ -1850,7 +1848,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="229">
+  <cellXfs count="223">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -2112,12 +2110,6 @@
     <xf numFmtId="171" fontId="10" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="172" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="173" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="172" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
@@ -3490,35 +3482,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cover sheet"/>
-      <sheetName val="Dashboard"/>
-      <sheetName val="nl_fce"/>
-      <sheetName val="Research data"/>
-      <sheetName val="Sources"/>
-      <sheetName val="Notes"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="9">
-          <cell r="G9">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3848,13 +3811,13 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="30" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="44.1640625" style="22" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="30" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="22" customWidth="1"/>
     <col min="4" max="4" width="2" style="22" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="22"/>
+    <col min="5" max="16384" width="10.85546875" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="28" customFormat="1">
@@ -3880,7 +3843,7 @@
         <v>146</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4050,25 +4013,25 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:J15"/>
+  <dimension ref="B1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="36" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="36" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="36" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="36" customWidth="1"/>
     <col min="3" max="3" width="46" style="36" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="36" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" style="36" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="36" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="36" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" style="36" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="36" customWidth="1"/>
     <col min="7" max="7" width="45" style="36" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" style="36" customWidth="1"/>
-    <col min="9" max="9" width="51.5" style="36" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="36" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="36"/>
+    <col min="8" max="8" width="5.140625" style="36" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" style="36" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="36" customWidth="1"/>
+    <col min="11" max="16384" width="10.85546875" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10">
@@ -4078,30 +4041,30 @@
       <c r="G1" s="34"/>
     </row>
     <row r="2" spans="2:10" ht="15" customHeight="1">
-      <c r="B2" s="217" t="s">
-        <v>162</v>
-      </c>
-      <c r="C2" s="218"/>
-      <c r="D2" s="218"/>
-      <c r="E2" s="218"/>
-      <c r="F2" s="218"/>
-      <c r="G2" s="219"/>
+      <c r="B2" s="211" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="212"/>
+      <c r="D2" s="212"/>
+      <c r="E2" s="212"/>
+      <c r="F2" s="212"/>
+      <c r="G2" s="213"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="220"/>
-      <c r="C3" s="221"/>
-      <c r="D3" s="221"/>
-      <c r="E3" s="221"/>
-      <c r="F3" s="221"/>
-      <c r="G3" s="222"/>
+      <c r="B3" s="214"/>
+      <c r="C3" s="215"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="215"/>
+      <c r="F3" s="215"/>
+      <c r="G3" s="216"/>
     </row>
     <row r="4" spans="2:10" ht="38" customHeight="1">
-      <c r="B4" s="223"/>
-      <c r="C4" s="224"/>
-      <c r="D4" s="224"/>
-      <c r="E4" s="224"/>
-      <c r="F4" s="224"/>
-      <c r="G4" s="225"/>
+      <c r="B4" s="217"/>
+      <c r="C4" s="218"/>
+      <c r="D4" s="218"/>
+      <c r="E4" s="218"/>
+      <c r="F4" s="218"/>
+      <c r="G4" s="219"/>
     </row>
     <row r="5" spans="2:10" ht="17" thickBot="1">
       <c r="D5" s="34"/>
@@ -4187,97 +4150,33 @@
     <row r="11" spans="2:10" s="42" customFormat="1" ht="20" thickBot="1">
       <c r="B11" s="24"/>
       <c r="C11" s="101" t="s">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="185">
-        <f>'Research data'!G7</f>
-        <v>6.2587002010933146E-3</v>
+        <v>51</v>
+      </c>
+      <c r="E11" s="44">
+        <f>'Research data'!G8</f>
+        <v>21.549999999999997</v>
       </c>
       <c r="F11" s="35"/>
       <c r="G11" s="101"/>
       <c r="H11" s="31"/>
       <c r="I11" s="172" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J11" s="43"/>
     </row>
-    <row r="12" spans="2:10" s="42" customFormat="1" ht="20" thickBot="1">
-      <c r="B12" s="24"/>
-      <c r="C12" s="101" t="s">
-        <v>145</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="44">
-        <f>'Research data'!G8</f>
-        <v>21.549999999999997</v>
-      </c>
-      <c r="F12" s="35"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="172" t="s">
-        <v>135</v>
-      </c>
-      <c r="J12" s="43"/>
-    </row>
-    <row r="13" spans="2:10" s="42" customFormat="1" ht="20" thickBot="1">
-      <c r="B13" s="24"/>
-      <c r="C13" s="186" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="187">
-        <f>'[2]Research data'!G9</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="186"/>
-      <c r="G13" s="188" t="s">
-        <v>150</v>
-      </c>
-      <c r="H13" s="31"/>
-      <c r="I13" s="189" t="s">
-        <v>151</v>
-      </c>
-      <c r="J13" s="43"/>
-    </row>
-    <row r="14" spans="2:10" s="42" customFormat="1" ht="20" thickBot="1">
-      <c r="B14" s="24"/>
-      <c r="C14" s="186" t="s">
-        <v>152</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="190">
-        <f>'Research data'!G10</f>
-        <v>0.112</v>
-      </c>
-      <c r="F14" s="186"/>
-      <c r="G14" s="188" t="s">
-        <v>153</v>
-      </c>
-      <c r="H14" s="31"/>
-      <c r="I14" s="189" t="s">
-        <v>154</v>
-      </c>
-      <c r="J14" s="43"/>
-    </row>
-    <row r="15" spans="2:10" ht="20" customHeight="1" thickBot="1">
-      <c r="B15" s="39"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="41"/>
+    <row r="12" spans="2:10" ht="20" customHeight="1" thickBot="1">
+      <c r="B12" s="39"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4295,32 +4194,32 @@
   </sheetPr>
   <dimension ref="B1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.5" style="62" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" style="62" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="62" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="62" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="62" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" style="62" customWidth="1"/>
-    <col min="8" max="8" width="4.6640625" style="62" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" style="63" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="62" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="62" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="62" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="62" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="62" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="62" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="62" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="63" customWidth="1"/>
     <col min="10" max="10" width="3" style="63" customWidth="1"/>
-    <col min="11" max="11" width="8.5" style="63" customWidth="1"/>
-    <col min="12" max="12" width="2.6640625" style="63" customWidth="1"/>
-    <col min="13" max="13" width="8.5" style="63" customWidth="1"/>
-    <col min="14" max="14" width="2.6640625" style="63" customWidth="1"/>
-    <col min="15" max="15" width="8.5" style="63" customWidth="1"/>
-    <col min="16" max="16" width="2.6640625" style="63" customWidth="1"/>
-    <col min="17" max="17" width="8.83203125" style="63" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.83203125" style="63" customWidth="1"/>
-    <col min="19" max="19" width="2.6640625" style="63" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" style="63" customWidth="1"/>
+    <col min="12" max="12" width="2.7109375" style="63" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" style="63" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="63" customWidth="1"/>
+    <col min="15" max="15" width="8.42578125" style="63" customWidth="1"/>
+    <col min="16" max="16" width="2.7109375" style="63" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" style="63" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.85546875" style="63" customWidth="1"/>
+    <col min="19" max="19" width="2.7109375" style="63" customWidth="1"/>
     <col min="20" max="20" width="60" style="62" customWidth="1"/>
-    <col min="21" max="16384" width="10.83203125" style="62"/>
+    <col min="21" max="16384" width="10.85546875" style="62"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="17" thickBot="1"/>
@@ -4379,7 +4278,7 @@
         <v>138</v>
       </c>
       <c r="R3" s="61" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="S3" s="61"/>
       <c r="T3" s="1" t="s">
@@ -4492,7 +4391,7 @@
         <f>Notes!F391</f>
         <v>6.2587002010933146E-3</v>
       </c>
-      <c r="R7" s="191"/>
+      <c r="R7" s="185"/>
       <c r="S7" s="16"/>
       <c r="T7" s="163" t="s">
         <v>137</v>
@@ -4566,8 +4465,8 @@
     </row>
     <row r="10" spans="2:20" s="6" customFormat="1" ht="17" thickBot="1">
       <c r="B10" s="5"/>
-      <c r="C10" s="192" t="s">
-        <v>155</v>
+      <c r="C10" s="186" t="s">
+        <v>152</v>
       </c>
       <c r="D10" s="105" t="s">
         <v>39</v>
@@ -4592,7 +4491,7 @@
       <c r="O10" s="16"/>
       <c r="P10" s="16"/>
       <c r="Q10" s="16"/>
-      <c r="R10" s="208">
+      <c r="R10" s="202">
         <f>Notes!G421</f>
         <v>0.112</v>
       </c>
@@ -4637,19 +4536,19 @@
       <selection activeCell="E7" sqref="E7:L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="45" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="45" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" style="45" customWidth="1"/>
-    <col min="4" max="4" width="3.1640625" style="45" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" style="45" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="45" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="45" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="45" customWidth="1"/>
     <col min="6" max="6" width="5" style="45" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" style="45" customWidth="1"/>
-    <col min="8" max="10" width="12.1640625" style="45" customWidth="1"/>
-    <col min="11" max="11" width="33.1640625" style="46" customWidth="1"/>
-    <col min="12" max="12" width="87.33203125" style="45" customWidth="1"/>
-    <col min="13" max="16384" width="33.1640625" style="45"/>
+    <col min="7" max="7" width="10.28515625" style="45" customWidth="1"/>
+    <col min="8" max="10" width="12.140625" style="45" customWidth="1"/>
+    <col min="11" max="11" width="33.140625" style="46" customWidth="1"/>
+    <col min="12" max="12" width="87.28515625" style="45" customWidth="1"/>
+    <col min="13" max="16384" width="33.140625" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="17" thickBot="1"/>
@@ -4741,14 +4640,14 @@
       <c r="C7" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="209" t="s">
-        <v>163</v>
+      <c r="E7" s="203" t="s">
+        <v>160</v>
       </c>
       <c r="H7" s="45">
         <v>2017</v>
       </c>
       <c r="L7" s="46" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="2:12">
@@ -4777,26 +4676,26 @@
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="50"/>
-      <c r="C11" s="194" t="s">
-        <v>152</v>
-      </c>
-      <c r="D11" s="195"/>
-      <c r="E11" s="196" t="s">
-        <v>154</v>
-      </c>
-      <c r="F11" s="196"/>
+      <c r="C11" s="188" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="189"/>
+      <c r="E11" s="190" t="s">
+        <v>151</v>
+      </c>
+      <c r="F11" s="190"/>
       <c r="G11" s="53" t="s">
         <v>62</v>
       </c>
       <c r="H11" s="54" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I11" s="54"/>
       <c r="J11" s="54"/>
-      <c r="K11" s="197" t="s">
-        <v>157</v>
-      </c>
-      <c r="L11" s="198"/>
+      <c r="K11" s="191" t="s">
+        <v>154</v>
+      </c>
+      <c r="L11" s="192"/>
     </row>
     <row r="12" spans="2:12">
       <c r="B12" s="50"/>
@@ -4922,15 +4821,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="96" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="96" customWidth="1"/>
     <col min="2" max="2" width="5" style="96" customWidth="1"/>
     <col min="3" max="5" width="7" style="96"/>
-    <col min="6" max="6" width="17.33203125" style="96" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="96" customWidth="1"/>
     <col min="7" max="7" width="7" style="96"/>
-    <col min="8" max="8" width="8.1640625" style="96" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" style="96" customWidth="1"/>
-    <col min="10" max="10" width="16.5" style="96" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.83203125" style="96" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" style="96" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" style="96" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" style="96" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" style="96" customWidth="1"/>
     <col min="12" max="16384" width="7" style="96"/>
   </cols>
   <sheetData>
@@ -10467,21 +10366,21 @@
     </row>
     <row r="386" spans="2:35" customFormat="1" ht="17" thickBot="1">
       <c r="B386" s="97"/>
-      <c r="C386" s="209" t="s">
-        <v>163</v>
+      <c r="C386" s="203" t="s">
+        <v>160</v>
       </c>
       <c r="D386" s="106"/>
       <c r="E386" s="106"/>
-      <c r="F386" s="214">
+      <c r="F386" s="208">
         <v>158.06</v>
       </c>
       <c r="G386" s="106" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H386" s="106"/>
       <c r="I386" s="106"/>
       <c r="J386" s="168" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K386" s="106"/>
       <c r="L386" s="106"/>
@@ -10504,12 +10403,12 @@
       <c r="C387" s="109"/>
       <c r="D387" s="106"/>
       <c r="E387" s="106"/>
-      <c r="F387" s="214">
+      <c r="F387" s="208">
         <f>Exchange_rates!E9</f>
         <v>1.1718999999999999</v>
       </c>
       <c r="G387" s="106" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H387" s="106"/>
       <c r="I387" s="106"/>
@@ -10532,8 +10431,8 @@
     </row>
     <row r="388" spans="2:35">
       <c r="B388" s="97"/>
-      <c r="D388" s="209"/>
-      <c r="E388" s="209"/>
+      <c r="D388" s="203"/>
+      <c r="E388" s="203"/>
       <c r="F388" s="165">
         <f>F386/F387</f>
         <v>134.8749893335609</v>
@@ -10587,95 +10486,95 @@
     <row r="395" spans="2:35" ht="17" thickBot="1">
       <c r="B395" s="97"/>
     </row>
-    <row r="396" spans="2:35" s="193" customFormat="1">
-      <c r="B396" s="199"/>
-      <c r="C396" s="200" t="s">
+    <row r="396" spans="2:35" s="187" customFormat="1">
+      <c r="B396" s="193"/>
+      <c r="C396" s="194" t="s">
         <v>25</v>
       </c>
-      <c r="D396" s="200" t="s">
+      <c r="D396" s="194" t="s">
         <v>55</v>
       </c>
-      <c r="E396" s="200"/>
-      <c r="F396" s="200" t="s">
+      <c r="E396" s="194"/>
+      <c r="F396" s="194" t="s">
         <v>32</v>
       </c>
-      <c r="G396" s="200"/>
-      <c r="H396" s="200"/>
-      <c r="I396" s="200"/>
-      <c r="J396" s="200"/>
-      <c r="K396" s="200"/>
-      <c r="L396" s="200"/>
-      <c r="M396" s="200"/>
-      <c r="N396" s="200"/>
-      <c r="O396" s="200"/>
-      <c r="P396" s="200"/>
-      <c r="Q396" s="200"/>
-      <c r="R396" s="200"/>
-      <c r="S396" s="200"/>
-      <c r="T396" s="200"/>
-      <c r="U396" s="200"/>
-      <c r="V396" s="201"/>
-      <c r="W396" s="201"/>
-      <c r="X396" s="201"/>
-      <c r="Y396" s="201"/>
-      <c r="Z396" s="201"/>
-      <c r="AA396" s="201"/>
-      <c r="AB396" s="201"/>
-      <c r="AC396" s="201"/>
-      <c r="AD396" s="201"/>
-      <c r="AE396" s="201"/>
-      <c r="AF396" s="201"/>
-      <c r="AG396" s="201"/>
-      <c r="AH396" s="201"/>
-      <c r="AI396" s="201"/>
-    </row>
-    <row r="397" spans="2:35" s="193" customFormat="1">
-      <c r="B397" s="202"/>
-      <c r="C397" s="203"/>
-      <c r="D397" s="203"/>
-      <c r="E397" s="203"/>
-      <c r="F397" s="203"/>
-      <c r="G397" s="203"/>
-      <c r="H397" s="203"/>
-      <c r="I397" s="203"/>
-      <c r="J397" s="203"/>
-      <c r="K397" s="203"/>
-      <c r="L397" s="203"/>
-      <c r="M397" s="203"/>
-      <c r="N397" s="203"/>
-      <c r="O397" s="203"/>
-      <c r="P397" s="203"/>
-      <c r="Q397" s="203"/>
-      <c r="R397" s="203"/>
-      <c r="S397" s="203"/>
-      <c r="T397" s="203"/>
-      <c r="U397" s="203"/>
-      <c r="V397" s="203"/>
-      <c r="W397" s="203"/>
-      <c r="X397" s="203"/>
-      <c r="Y397" s="203"/>
-      <c r="Z397" s="203"/>
-      <c r="AA397" s="203"/>
-      <c r="AB397" s="203"/>
-      <c r="AC397" s="203"/>
-      <c r="AD397" s="203"/>
-      <c r="AE397" s="203"/>
-      <c r="AF397" s="203"/>
-      <c r="AG397" s="203"/>
-      <c r="AH397" s="203"/>
-      <c r="AI397" s="203"/>
-    </row>
-    <row r="398" spans="2:35" s="193" customFormat="1">
-      <c r="B398" s="202"/>
-      <c r="C398" s="204" t="s">
-        <v>158</v>
-      </c>
-      <c r="D398" s="205"/>
-      <c r="E398" s="205"/>
-      <c r="F398" s="205"/>
-      <c r="G398" s="205"/>
-      <c r="H398" s="205"/>
-      <c r="I398" s="205"/>
+      <c r="G396" s="194"/>
+      <c r="H396" s="194"/>
+      <c r="I396" s="194"/>
+      <c r="J396" s="194"/>
+      <c r="K396" s="194"/>
+      <c r="L396" s="194"/>
+      <c r="M396" s="194"/>
+      <c r="N396" s="194"/>
+      <c r="O396" s="194"/>
+      <c r="P396" s="194"/>
+      <c r="Q396" s="194"/>
+      <c r="R396" s="194"/>
+      <c r="S396" s="194"/>
+      <c r="T396" s="194"/>
+      <c r="U396" s="194"/>
+      <c r="V396" s="195"/>
+      <c r="W396" s="195"/>
+      <c r="X396" s="195"/>
+      <c r="Y396" s="195"/>
+      <c r="Z396" s="195"/>
+      <c r="AA396" s="195"/>
+      <c r="AB396" s="195"/>
+      <c r="AC396" s="195"/>
+      <c r="AD396" s="195"/>
+      <c r="AE396" s="195"/>
+      <c r="AF396" s="195"/>
+      <c r="AG396" s="195"/>
+      <c r="AH396" s="195"/>
+      <c r="AI396" s="195"/>
+    </row>
+    <row r="397" spans="2:35" s="187" customFormat="1">
+      <c r="B397" s="196"/>
+      <c r="C397" s="197"/>
+      <c r="D397" s="197"/>
+      <c r="E397" s="197"/>
+      <c r="F397" s="197"/>
+      <c r="G397" s="197"/>
+      <c r="H397" s="197"/>
+      <c r="I397" s="197"/>
+      <c r="J397" s="197"/>
+      <c r="K397" s="197"/>
+      <c r="L397" s="197"/>
+      <c r="M397" s="197"/>
+      <c r="N397" s="197"/>
+      <c r="O397" s="197"/>
+      <c r="P397" s="197"/>
+      <c r="Q397" s="197"/>
+      <c r="R397" s="197"/>
+      <c r="S397" s="197"/>
+      <c r="T397" s="197"/>
+      <c r="U397" s="197"/>
+      <c r="V397" s="197"/>
+      <c r="W397" s="197"/>
+      <c r="X397" s="197"/>
+      <c r="Y397" s="197"/>
+      <c r="Z397" s="197"/>
+      <c r="AA397" s="197"/>
+      <c r="AB397" s="197"/>
+      <c r="AC397" s="197"/>
+      <c r="AD397" s="197"/>
+      <c r="AE397" s="197"/>
+      <c r="AF397" s="197"/>
+      <c r="AG397" s="197"/>
+      <c r="AH397" s="197"/>
+      <c r="AI397" s="197"/>
+    </row>
+    <row r="398" spans="2:35" s="187" customFormat="1">
+      <c r="B398" s="196"/>
+      <c r="C398" s="198" t="s">
+        <v>155</v>
+      </c>
+      <c r="D398" s="199"/>
+      <c r="E398" s="199"/>
+      <c r="F398" s="199"/>
+      <c r="G398" s="199"/>
+      <c r="H398" s="199"/>
+      <c r="I398" s="199"/>
       <c r="J398" s="106"/>
       <c r="K398" s="106"/>
       <c r="L398" s="106"/>
@@ -10692,26 +10591,26 @@
       <c r="W398" s="106"/>
       <c r="X398" s="106"/>
       <c r="Y398" s="106"/>
-      <c r="Z398" s="206"/>
-      <c r="AA398" s="206"/>
-      <c r="AB398" s="206"/>
-      <c r="AC398" s="206"/>
-      <c r="AD398" s="206"/>
-      <c r="AE398" s="206"/>
-      <c r="AF398" s="206"/>
-      <c r="AG398" s="206"/>
-      <c r="AH398" s="206"/>
-      <c r="AI398" s="206"/>
-    </row>
-    <row r="399" spans="2:35" s="193" customFormat="1">
-      <c r="B399" s="202"/>
-      <c r="C399" s="205"/>
-      <c r="D399" s="205"/>
-      <c r="E399" s="205"/>
-      <c r="F399" s="205"/>
-      <c r="G399" s="205"/>
-      <c r="H399" s="205"/>
-      <c r="I399" s="205"/>
+      <c r="Z398" s="200"/>
+      <c r="AA398" s="200"/>
+      <c r="AB398" s="200"/>
+      <c r="AC398" s="200"/>
+      <c r="AD398" s="200"/>
+      <c r="AE398" s="200"/>
+      <c r="AF398" s="200"/>
+      <c r="AG398" s="200"/>
+      <c r="AH398" s="200"/>
+      <c r="AI398" s="200"/>
+    </row>
+    <row r="399" spans="2:35" s="187" customFormat="1">
+      <c r="B399" s="196"/>
+      <c r="C399" s="199"/>
+      <c r="D399" s="199"/>
+      <c r="E399" s="199"/>
+      <c r="F399" s="199"/>
+      <c r="G399" s="199"/>
+      <c r="H399" s="199"/>
+      <c r="I399" s="199"/>
       <c r="J399" s="106"/>
       <c r="K399" s="106"/>
       <c r="L399" s="106"/>
@@ -10728,26 +10627,26 @@
       <c r="W399" s="106"/>
       <c r="X399" s="106"/>
       <c r="Y399" s="106"/>
-      <c r="Z399" s="206"/>
-      <c r="AA399" s="206"/>
-      <c r="AB399" s="206"/>
-      <c r="AC399" s="206"/>
-      <c r="AD399" s="206"/>
-      <c r="AE399" s="206"/>
-      <c r="AF399" s="206"/>
-      <c r="AG399" s="206"/>
-      <c r="AH399" s="206"/>
-      <c r="AI399" s="206"/>
-    </row>
-    <row r="400" spans="2:35" s="193" customFormat="1">
-      <c r="B400" s="202"/>
-      <c r="C400" s="205"/>
-      <c r="D400" s="205"/>
-      <c r="E400" s="205"/>
-      <c r="F400" s="205"/>
-      <c r="G400" s="205"/>
-      <c r="H400" s="205"/>
-      <c r="I400" s="205"/>
+      <c r="Z399" s="200"/>
+      <c r="AA399" s="200"/>
+      <c r="AB399" s="200"/>
+      <c r="AC399" s="200"/>
+      <c r="AD399" s="200"/>
+      <c r="AE399" s="200"/>
+      <c r="AF399" s="200"/>
+      <c r="AG399" s="200"/>
+      <c r="AH399" s="200"/>
+      <c r="AI399" s="200"/>
+    </row>
+    <row r="400" spans="2:35" s="187" customFormat="1">
+      <c r="B400" s="196"/>
+      <c r="C400" s="199"/>
+      <c r="D400" s="199"/>
+      <c r="E400" s="199"/>
+      <c r="F400" s="199"/>
+      <c r="G400" s="199"/>
+      <c r="H400" s="199"/>
+      <c r="I400" s="199"/>
       <c r="J400" s="106"/>
       <c r="K400" s="106"/>
       <c r="L400" s="106"/>
@@ -10764,26 +10663,26 @@
       <c r="W400" s="106"/>
       <c r="X400" s="106"/>
       <c r="Y400" s="106"/>
-      <c r="Z400" s="206"/>
-      <c r="AA400" s="206"/>
-      <c r="AB400" s="206"/>
-      <c r="AC400" s="206"/>
-      <c r="AD400" s="206"/>
-      <c r="AE400" s="206"/>
-      <c r="AF400" s="206"/>
-      <c r="AG400" s="206"/>
-      <c r="AH400" s="206"/>
-      <c r="AI400" s="206"/>
-    </row>
-    <row r="401" spans="2:35" s="193" customFormat="1">
-      <c r="B401" s="202"/>
-      <c r="C401" s="205"/>
-      <c r="D401" s="205"/>
-      <c r="E401" s="205"/>
-      <c r="F401" s="205"/>
-      <c r="G401" s="205"/>
-      <c r="H401" s="205"/>
-      <c r="I401" s="205"/>
+      <c r="Z400" s="200"/>
+      <c r="AA400" s="200"/>
+      <c r="AB400" s="200"/>
+      <c r="AC400" s="200"/>
+      <c r="AD400" s="200"/>
+      <c r="AE400" s="200"/>
+      <c r="AF400" s="200"/>
+      <c r="AG400" s="200"/>
+      <c r="AH400" s="200"/>
+      <c r="AI400" s="200"/>
+    </row>
+    <row r="401" spans="2:35" s="187" customFormat="1">
+      <c r="B401" s="196"/>
+      <c r="C401" s="199"/>
+      <c r="D401" s="199"/>
+      <c r="E401" s="199"/>
+      <c r="F401" s="199"/>
+      <c r="G401" s="199"/>
+      <c r="H401" s="199"/>
+      <c r="I401" s="199"/>
       <c r="J401" s="106"/>
       <c r="K401" s="106"/>
       <c r="L401" s="106"/>
@@ -10800,26 +10699,26 @@
       <c r="W401" s="106"/>
       <c r="X401" s="106"/>
       <c r="Y401" s="106"/>
-      <c r="Z401" s="206"/>
-      <c r="AA401" s="206"/>
-      <c r="AB401" s="206"/>
-      <c r="AC401" s="206"/>
-      <c r="AD401" s="206"/>
-      <c r="AE401" s="206"/>
-      <c r="AF401" s="206"/>
-      <c r="AG401" s="206"/>
-      <c r="AH401" s="206"/>
-      <c r="AI401" s="206"/>
-    </row>
-    <row r="402" spans="2:35" s="193" customFormat="1">
-      <c r="B402" s="202"/>
-      <c r="C402" s="205"/>
-      <c r="D402" s="205"/>
-      <c r="E402" s="205"/>
-      <c r="F402" s="205"/>
-      <c r="G402" s="205"/>
-      <c r="H402" s="205"/>
-      <c r="I402" s="205"/>
+      <c r="Z401" s="200"/>
+      <c r="AA401" s="200"/>
+      <c r="AB401" s="200"/>
+      <c r="AC401" s="200"/>
+      <c r="AD401" s="200"/>
+      <c r="AE401" s="200"/>
+      <c r="AF401" s="200"/>
+      <c r="AG401" s="200"/>
+      <c r="AH401" s="200"/>
+      <c r="AI401" s="200"/>
+    </row>
+    <row r="402" spans="2:35" s="187" customFormat="1">
+      <c r="B402" s="196"/>
+      <c r="C402" s="199"/>
+      <c r="D402" s="199"/>
+      <c r="E402" s="199"/>
+      <c r="F402" s="199"/>
+      <c r="G402" s="199"/>
+      <c r="H402" s="199"/>
+      <c r="I402" s="199"/>
       <c r="J402" s="106"/>
       <c r="K402" s="106"/>
       <c r="L402" s="106"/>
@@ -10836,20 +10735,20 @@
       <c r="W402" s="106"/>
       <c r="X402" s="106"/>
       <c r="Y402" s="106"/>
-      <c r="Z402" s="206"/>
-      <c r="AA402" s="206"/>
-      <c r="AB402" s="206"/>
-      <c r="AC402" s="206"/>
-      <c r="AD402" s="206"/>
-      <c r="AE402" s="206"/>
-      <c r="AF402" s="206"/>
-      <c r="AG402" s="206"/>
-      <c r="AH402" s="206"/>
-      <c r="AI402" s="206"/>
-    </row>
-    <row r="403" spans="2:35" s="193" customFormat="1">
-      <c r="B403" s="202"/>
-      <c r="C403" s="205"/>
+      <c r="Z402" s="200"/>
+      <c r="AA402" s="200"/>
+      <c r="AB402" s="200"/>
+      <c r="AC402" s="200"/>
+      <c r="AD402" s="200"/>
+      <c r="AE402" s="200"/>
+      <c r="AF402" s="200"/>
+      <c r="AG402" s="200"/>
+      <c r="AH402" s="200"/>
+      <c r="AI402" s="200"/>
+    </row>
+    <row r="403" spans="2:35" s="187" customFormat="1">
+      <c r="B403" s="196"/>
+      <c r="C403" s="199"/>
       <c r="D403" s="106"/>
       <c r="E403" s="106"/>
       <c r="F403" s="106"/>
@@ -10872,20 +10771,20 @@
       <c r="W403" s="106"/>
       <c r="X403" s="106"/>
       <c r="Y403" s="106"/>
-      <c r="Z403" s="206"/>
-      <c r="AA403" s="206"/>
-      <c r="AB403" s="206"/>
-      <c r="AC403" s="206"/>
-      <c r="AD403" s="206"/>
-      <c r="AE403" s="206"/>
-      <c r="AF403" s="206"/>
-      <c r="AG403" s="206"/>
-      <c r="AH403" s="206"/>
-      <c r="AI403" s="206"/>
-    </row>
-    <row r="404" spans="2:35" s="193" customFormat="1">
-      <c r="B404" s="202"/>
-      <c r="C404" s="205"/>
+      <c r="Z403" s="200"/>
+      <c r="AA403" s="200"/>
+      <c r="AB403" s="200"/>
+      <c r="AC403" s="200"/>
+      <c r="AD403" s="200"/>
+      <c r="AE403" s="200"/>
+      <c r="AF403" s="200"/>
+      <c r="AG403" s="200"/>
+      <c r="AH403" s="200"/>
+      <c r="AI403" s="200"/>
+    </row>
+    <row r="404" spans="2:35" s="187" customFormat="1">
+      <c r="B404" s="196"/>
+      <c r="C404" s="199"/>
       <c r="D404" s="106"/>
       <c r="E404" s="106"/>
       <c r="F404" s="106"/>
@@ -10908,20 +10807,20 @@
       <c r="W404" s="106"/>
       <c r="X404" s="106"/>
       <c r="Y404" s="106"/>
-      <c r="Z404" s="206"/>
-      <c r="AA404" s="206"/>
-      <c r="AB404" s="206"/>
-      <c r="AC404" s="206"/>
-      <c r="AD404" s="206"/>
-      <c r="AE404" s="206"/>
-      <c r="AF404" s="206"/>
-      <c r="AG404" s="206"/>
-      <c r="AH404" s="206"/>
-      <c r="AI404" s="206"/>
-    </row>
-    <row r="405" spans="2:35" s="193" customFormat="1">
-      <c r="B405" s="202"/>
-      <c r="C405" s="205"/>
+      <c r="Z404" s="200"/>
+      <c r="AA404" s="200"/>
+      <c r="AB404" s="200"/>
+      <c r="AC404" s="200"/>
+      <c r="AD404" s="200"/>
+      <c r="AE404" s="200"/>
+      <c r="AF404" s="200"/>
+      <c r="AG404" s="200"/>
+      <c r="AH404" s="200"/>
+      <c r="AI404" s="200"/>
+    </row>
+    <row r="405" spans="2:35" s="187" customFormat="1">
+      <c r="B405" s="196"/>
+      <c r="C405" s="199"/>
       <c r="D405" s="106"/>
       <c r="E405" s="106"/>
       <c r="F405" s="106"/>
@@ -10944,19 +10843,19 @@
       <c r="W405" s="106"/>
       <c r="X405" s="106"/>
       <c r="Y405" s="106"/>
-      <c r="Z405" s="206"/>
-      <c r="AA405" s="206"/>
-      <c r="AB405" s="206"/>
-      <c r="AC405" s="206"/>
-      <c r="AD405" s="206"/>
-      <c r="AE405" s="206"/>
-      <c r="AF405" s="206"/>
-      <c r="AG405" s="206"/>
-      <c r="AH405" s="206"/>
-      <c r="AI405" s="206"/>
-    </row>
-    <row r="406" spans="2:35" s="193" customFormat="1">
-      <c r="B406" s="202"/>
+      <c r="Z405" s="200"/>
+      <c r="AA405" s="200"/>
+      <c r="AB405" s="200"/>
+      <c r="AC405" s="200"/>
+      <c r="AD405" s="200"/>
+      <c r="AE405" s="200"/>
+      <c r="AF405" s="200"/>
+      <c r="AG405" s="200"/>
+      <c r="AH405" s="200"/>
+      <c r="AI405" s="200"/>
+    </row>
+    <row r="406" spans="2:35" s="187" customFormat="1">
+      <c r="B406" s="196"/>
       <c r="C406" s="106"/>
       <c r="D406" s="106"/>
       <c r="E406" s="106"/>
@@ -10980,19 +10879,19 @@
       <c r="W406" s="106"/>
       <c r="X406" s="106"/>
       <c r="Y406" s="106"/>
-      <c r="Z406" s="206"/>
-      <c r="AA406" s="206"/>
-      <c r="AB406" s="206"/>
-      <c r="AC406" s="206"/>
-      <c r="AD406" s="206"/>
-      <c r="AE406" s="206"/>
-      <c r="AF406" s="206"/>
-      <c r="AG406" s="206"/>
-      <c r="AH406" s="206"/>
-      <c r="AI406" s="206"/>
-    </row>
-    <row r="407" spans="2:35" s="193" customFormat="1">
-      <c r="B407" s="202"/>
+      <c r="Z406" s="200"/>
+      <c r="AA406" s="200"/>
+      <c r="AB406" s="200"/>
+      <c r="AC406" s="200"/>
+      <c r="AD406" s="200"/>
+      <c r="AE406" s="200"/>
+      <c r="AF406" s="200"/>
+      <c r="AG406" s="200"/>
+      <c r="AH406" s="200"/>
+      <c r="AI406" s="200"/>
+    </row>
+    <row r="407" spans="2:35" s="187" customFormat="1">
+      <c r="B407" s="196"/>
       <c r="C407" s="106"/>
       <c r="D407" s="106"/>
       <c r="E407" s="106"/>
@@ -11016,19 +10915,19 @@
       <c r="W407" s="106"/>
       <c r="X407" s="106"/>
       <c r="Y407" s="106"/>
-      <c r="Z407" s="206"/>
-      <c r="AA407" s="206"/>
-      <c r="AB407" s="206"/>
-      <c r="AC407" s="206"/>
-      <c r="AD407" s="206"/>
-      <c r="AE407" s="206"/>
-      <c r="AF407" s="206"/>
-      <c r="AG407" s="206"/>
-      <c r="AH407" s="206"/>
-      <c r="AI407" s="206"/>
-    </row>
-    <row r="408" spans="2:35" s="193" customFormat="1">
-      <c r="B408" s="202"/>
+      <c r="Z407" s="200"/>
+      <c r="AA407" s="200"/>
+      <c r="AB407" s="200"/>
+      <c r="AC407" s="200"/>
+      <c r="AD407" s="200"/>
+      <c r="AE407" s="200"/>
+      <c r="AF407" s="200"/>
+      <c r="AG407" s="200"/>
+      <c r="AH407" s="200"/>
+      <c r="AI407" s="200"/>
+    </row>
+    <row r="408" spans="2:35" s="187" customFormat="1">
+      <c r="B408" s="196"/>
       <c r="C408" s="106"/>
       <c r="D408" s="106"/>
       <c r="E408" s="106"/>
@@ -11052,19 +10951,19 @@
       <c r="W408" s="106"/>
       <c r="X408" s="106"/>
       <c r="Y408" s="106"/>
-      <c r="Z408" s="206"/>
-      <c r="AA408" s="206"/>
-      <c r="AB408" s="206"/>
-      <c r="AC408" s="206"/>
-      <c r="AD408" s="206"/>
-      <c r="AE408" s="206"/>
-      <c r="AF408" s="206"/>
-      <c r="AG408" s="206"/>
-      <c r="AH408" s="206"/>
-      <c r="AI408" s="206"/>
-    </row>
-    <row r="409" spans="2:35" s="193" customFormat="1">
-      <c r="B409" s="202"/>
+      <c r="Z408" s="200"/>
+      <c r="AA408" s="200"/>
+      <c r="AB408" s="200"/>
+      <c r="AC408" s="200"/>
+      <c r="AD408" s="200"/>
+      <c r="AE408" s="200"/>
+      <c r="AF408" s="200"/>
+      <c r="AG408" s="200"/>
+      <c r="AH408" s="200"/>
+      <c r="AI408" s="200"/>
+    </row>
+    <row r="409" spans="2:35" s="187" customFormat="1">
+      <c r="B409" s="196"/>
       <c r="C409" s="106"/>
       <c r="D409" s="106"/>
       <c r="E409" s="106"/>
@@ -11088,19 +10987,19 @@
       <c r="W409" s="106"/>
       <c r="X409" s="106"/>
       <c r="Y409" s="106"/>
-      <c r="Z409" s="206"/>
-      <c r="AA409" s="206"/>
-      <c r="AB409" s="206"/>
-      <c r="AC409" s="206"/>
-      <c r="AD409" s="206"/>
-      <c r="AE409" s="206"/>
-      <c r="AF409" s="206"/>
-      <c r="AG409" s="206"/>
-      <c r="AH409" s="206"/>
-      <c r="AI409" s="206"/>
-    </row>
-    <row r="410" spans="2:35" s="193" customFormat="1">
-      <c r="B410" s="202"/>
+      <c r="Z409" s="200"/>
+      <c r="AA409" s="200"/>
+      <c r="AB409" s="200"/>
+      <c r="AC409" s="200"/>
+      <c r="AD409" s="200"/>
+      <c r="AE409" s="200"/>
+      <c r="AF409" s="200"/>
+      <c r="AG409" s="200"/>
+      <c r="AH409" s="200"/>
+      <c r="AI409" s="200"/>
+    </row>
+    <row r="410" spans="2:35" s="187" customFormat="1">
+      <c r="B410" s="196"/>
       <c r="C410" s="106"/>
       <c r="D410" s="106"/>
       <c r="E410" s="106"/>
@@ -11124,19 +11023,19 @@
       <c r="W410" s="106"/>
       <c r="X410" s="106"/>
       <c r="Y410" s="106"/>
-      <c r="Z410" s="206"/>
-      <c r="AA410" s="206"/>
-      <c r="AB410" s="206"/>
-      <c r="AC410" s="206"/>
-      <c r="AD410" s="206"/>
-      <c r="AE410" s="206"/>
-      <c r="AF410" s="206"/>
-      <c r="AG410" s="206"/>
-      <c r="AH410" s="206"/>
-      <c r="AI410" s="206"/>
-    </row>
-    <row r="411" spans="2:35" s="193" customFormat="1">
-      <c r="B411" s="202"/>
+      <c r="Z410" s="200"/>
+      <c r="AA410" s="200"/>
+      <c r="AB410" s="200"/>
+      <c r="AC410" s="200"/>
+      <c r="AD410" s="200"/>
+      <c r="AE410" s="200"/>
+      <c r="AF410" s="200"/>
+      <c r="AG410" s="200"/>
+      <c r="AH410" s="200"/>
+      <c r="AI410" s="200"/>
+    </row>
+    <row r="411" spans="2:35" s="187" customFormat="1">
+      <c r="B411" s="196"/>
       <c r="C411" s="106"/>
       <c r="D411" s="106"/>
       <c r="E411" s="106"/>
@@ -11160,19 +11059,19 @@
       <c r="W411" s="106"/>
       <c r="X411" s="106"/>
       <c r="Y411" s="106"/>
-      <c r="Z411" s="206"/>
-      <c r="AA411" s="206"/>
-      <c r="AB411" s="206"/>
-      <c r="AC411" s="206"/>
-      <c r="AD411" s="206"/>
-      <c r="AE411" s="206"/>
-      <c r="AF411" s="206"/>
-      <c r="AG411" s="206"/>
-      <c r="AH411" s="206"/>
-      <c r="AI411" s="206"/>
-    </row>
-    <row r="412" spans="2:35" s="193" customFormat="1">
-      <c r="B412" s="202"/>
+      <c r="Z411" s="200"/>
+      <c r="AA411" s="200"/>
+      <c r="AB411" s="200"/>
+      <c r="AC411" s="200"/>
+      <c r="AD411" s="200"/>
+      <c r="AE411" s="200"/>
+      <c r="AF411" s="200"/>
+      <c r="AG411" s="200"/>
+      <c r="AH411" s="200"/>
+      <c r="AI411" s="200"/>
+    </row>
+    <row r="412" spans="2:35" s="187" customFormat="1">
+      <c r="B412" s="196"/>
       <c r="C412" s="106"/>
       <c r="D412" s="106"/>
       <c r="E412" s="106"/>
@@ -11196,19 +11095,19 @@
       <c r="W412" s="106"/>
       <c r="X412" s="106"/>
       <c r="Y412" s="106"/>
-      <c r="Z412" s="206"/>
-      <c r="AA412" s="206"/>
-      <c r="AB412" s="206"/>
-      <c r="AC412" s="206"/>
-      <c r="AD412" s="206"/>
-      <c r="AE412" s="206"/>
-      <c r="AF412" s="206"/>
-      <c r="AG412" s="206"/>
-      <c r="AH412" s="206"/>
-      <c r="AI412" s="206"/>
-    </row>
-    <row r="413" spans="2:35" s="193" customFormat="1">
-      <c r="B413" s="202"/>
+      <c r="Z412" s="200"/>
+      <c r="AA412" s="200"/>
+      <c r="AB412" s="200"/>
+      <c r="AC412" s="200"/>
+      <c r="AD412" s="200"/>
+      <c r="AE412" s="200"/>
+      <c r="AF412" s="200"/>
+      <c r="AG412" s="200"/>
+      <c r="AH412" s="200"/>
+      <c r="AI412" s="200"/>
+    </row>
+    <row r="413" spans="2:35" s="187" customFormat="1">
+      <c r="B413" s="196"/>
       <c r="C413" s="106"/>
       <c r="D413" s="106"/>
       <c r="E413" s="106"/>
@@ -11232,19 +11131,19 @@
       <c r="W413" s="106"/>
       <c r="X413" s="106"/>
       <c r="Y413" s="106"/>
-      <c r="Z413" s="206"/>
-      <c r="AA413" s="206"/>
-      <c r="AB413" s="206"/>
-      <c r="AC413" s="206"/>
-      <c r="AD413" s="206"/>
-      <c r="AE413" s="206"/>
-      <c r="AF413" s="206"/>
-      <c r="AG413" s="206"/>
-      <c r="AH413" s="206"/>
-      <c r="AI413" s="206"/>
-    </row>
-    <row r="414" spans="2:35" s="193" customFormat="1">
-      <c r="B414" s="202"/>
+      <c r="Z413" s="200"/>
+      <c r="AA413" s="200"/>
+      <c r="AB413" s="200"/>
+      <c r="AC413" s="200"/>
+      <c r="AD413" s="200"/>
+      <c r="AE413" s="200"/>
+      <c r="AF413" s="200"/>
+      <c r="AG413" s="200"/>
+      <c r="AH413" s="200"/>
+      <c r="AI413" s="200"/>
+    </row>
+    <row r="414" spans="2:35" s="187" customFormat="1">
+      <c r="B414" s="196"/>
       <c r="C414" s="106"/>
       <c r="D414" s="106"/>
       <c r="E414" s="106"/>
@@ -11268,19 +11167,19 @@
       <c r="W414" s="106"/>
       <c r="X414" s="106"/>
       <c r="Y414" s="106"/>
-      <c r="Z414" s="206"/>
-      <c r="AA414" s="206"/>
-      <c r="AB414" s="206"/>
-      <c r="AC414" s="206"/>
-      <c r="AD414" s="206"/>
-      <c r="AE414" s="206"/>
-      <c r="AF414" s="206"/>
-      <c r="AG414" s="206"/>
-      <c r="AH414" s="206"/>
-      <c r="AI414" s="206"/>
-    </row>
-    <row r="415" spans="2:35" s="193" customFormat="1">
-      <c r="B415" s="202"/>
+      <c r="Z414" s="200"/>
+      <c r="AA414" s="200"/>
+      <c r="AB414" s="200"/>
+      <c r="AC414" s="200"/>
+      <c r="AD414" s="200"/>
+      <c r="AE414" s="200"/>
+      <c r="AF414" s="200"/>
+      <c r="AG414" s="200"/>
+      <c r="AH414" s="200"/>
+      <c r="AI414" s="200"/>
+    </row>
+    <row r="415" spans="2:35" s="187" customFormat="1">
+      <c r="B415" s="196"/>
       <c r="C415" s="106"/>
       <c r="D415" s="106"/>
       <c r="E415" s="106"/>
@@ -11304,19 +11203,19 @@
       <c r="W415" s="106"/>
       <c r="X415" s="106"/>
       <c r="Y415" s="106"/>
-      <c r="Z415" s="206"/>
-      <c r="AA415" s="206"/>
-      <c r="AB415" s="206"/>
-      <c r="AC415" s="206"/>
-      <c r="AD415" s="206"/>
-      <c r="AE415" s="206"/>
-      <c r="AF415" s="206"/>
-      <c r="AG415" s="206"/>
-      <c r="AH415" s="206"/>
-      <c r="AI415" s="206"/>
-    </row>
-    <row r="416" spans="2:35" s="193" customFormat="1">
-      <c r="B416" s="202"/>
+      <c r="Z415" s="200"/>
+      <c r="AA415" s="200"/>
+      <c r="AB415" s="200"/>
+      <c r="AC415" s="200"/>
+      <c r="AD415" s="200"/>
+      <c r="AE415" s="200"/>
+      <c r="AF415" s="200"/>
+      <c r="AG415" s="200"/>
+      <c r="AH415" s="200"/>
+      <c r="AI415" s="200"/>
+    </row>
+    <row r="416" spans="2:35" s="187" customFormat="1">
+      <c r="B416" s="196"/>
       <c r="C416" s="106"/>
       <c r="D416" s="106"/>
       <c r="E416" s="106"/>
@@ -11340,19 +11239,19 @@
       <c r="W416" s="106"/>
       <c r="X416" s="106"/>
       <c r="Y416" s="106"/>
-      <c r="Z416" s="206"/>
-      <c r="AA416" s="206"/>
-      <c r="AB416" s="206"/>
-      <c r="AC416" s="206"/>
-      <c r="AD416" s="206"/>
-      <c r="AE416" s="206"/>
-      <c r="AF416" s="206"/>
-      <c r="AG416" s="206"/>
-      <c r="AH416" s="206"/>
-      <c r="AI416" s="206"/>
-    </row>
-    <row r="417" spans="2:35" s="193" customFormat="1">
-      <c r="B417" s="202"/>
+      <c r="Z416" s="200"/>
+      <c r="AA416" s="200"/>
+      <c r="AB416" s="200"/>
+      <c r="AC416" s="200"/>
+      <c r="AD416" s="200"/>
+      <c r="AE416" s="200"/>
+      <c r="AF416" s="200"/>
+      <c r="AG416" s="200"/>
+      <c r="AH416" s="200"/>
+      <c r="AI416" s="200"/>
+    </row>
+    <row r="417" spans="2:35" s="187" customFormat="1">
+      <c r="B417" s="196"/>
       <c r="C417" s="106"/>
       <c r="D417" s="106"/>
       <c r="E417" s="106"/>
@@ -11376,19 +11275,19 @@
       <c r="W417" s="106"/>
       <c r="X417" s="106"/>
       <c r="Y417" s="106"/>
-      <c r="Z417" s="206"/>
-      <c r="AA417" s="206"/>
-      <c r="AB417" s="206"/>
-      <c r="AC417" s="206"/>
-      <c r="AD417" s="206"/>
-      <c r="AE417" s="206"/>
-      <c r="AF417" s="206"/>
-      <c r="AG417" s="206"/>
-      <c r="AH417" s="206"/>
-      <c r="AI417" s="206"/>
-    </row>
-    <row r="418" spans="2:35" s="193" customFormat="1">
-      <c r="B418" s="202"/>
+      <c r="Z417" s="200"/>
+      <c r="AA417" s="200"/>
+      <c r="AB417" s="200"/>
+      <c r="AC417" s="200"/>
+      <c r="AD417" s="200"/>
+      <c r="AE417" s="200"/>
+      <c r="AF417" s="200"/>
+      <c r="AG417" s="200"/>
+      <c r="AH417" s="200"/>
+      <c r="AI417" s="200"/>
+    </row>
+    <row r="418" spans="2:35" s="187" customFormat="1">
+      <c r="B418" s="196"/>
       <c r="C418" s="106"/>
       <c r="D418" s="106"/>
       <c r="E418" s="106"/>
@@ -11412,33 +11311,33 @@
       <c r="W418" s="106"/>
       <c r="X418" s="106"/>
       <c r="Y418" s="106"/>
-      <c r="Z418" s="206"/>
-      <c r="AA418" s="206"/>
-      <c r="AB418" s="206"/>
-      <c r="AC418" s="206"/>
-      <c r="AD418" s="206"/>
-      <c r="AE418" s="206"/>
-      <c r="AF418" s="206"/>
-      <c r="AG418" s="206"/>
-      <c r="AH418" s="206"/>
-      <c r="AI418" s="206"/>
-    </row>
-    <row r="419" spans="2:35" s="193" customFormat="1">
-      <c r="B419" s="202"/>
+      <c r="Z418" s="200"/>
+      <c r="AA418" s="200"/>
+      <c r="AB418" s="200"/>
+      <c r="AC418" s="200"/>
+      <c r="AD418" s="200"/>
+      <c r="AE418" s="200"/>
+      <c r="AF418" s="200"/>
+      <c r="AG418" s="200"/>
+      <c r="AH418" s="200"/>
+      <c r="AI418" s="200"/>
+    </row>
+    <row r="419" spans="2:35" s="187" customFormat="1">
+      <c r="B419" s="196"/>
       <c r="C419" s="106"/>
-      <c r="D419" s="205">
+      <c r="D419" s="199">
         <v>1.24</v>
       </c>
-      <c r="E419" s="207"/>
-      <c r="F419" s="205"/>
-      <c r="G419" s="205">
+      <c r="E419" s="201"/>
+      <c r="F419" s="199"/>
+      <c r="G419" s="199">
         <v>112000</v>
       </c>
-      <c r="H419" s="205" t="s">
-        <v>159</v>
-      </c>
-      <c r="I419" s="205" t="s">
-        <v>161</v>
+      <c r="H419" s="199" t="s">
+        <v>156</v>
+      </c>
+      <c r="I419" s="199" t="s">
+        <v>158</v>
       </c>
       <c r="J419" s="106"/>
       <c r="K419" s="106"/>
@@ -11456,31 +11355,31 @@
       <c r="W419" s="106"/>
       <c r="X419" s="106"/>
       <c r="Y419" s="106"/>
-      <c r="Z419" s="206"/>
-      <c r="AA419" s="206"/>
-      <c r="AB419" s="206"/>
-      <c r="AC419" s="206"/>
-      <c r="AD419" s="206"/>
-      <c r="AE419" s="206"/>
-      <c r="AF419" s="206"/>
-      <c r="AG419" s="206"/>
-      <c r="AH419" s="206"/>
-      <c r="AI419" s="206"/>
-    </row>
-    <row r="420" spans="2:35" s="193" customFormat="1">
-      <c r="B420" s="202"/>
+      <c r="Z419" s="200"/>
+      <c r="AA419" s="200"/>
+      <c r="AB419" s="200"/>
+      <c r="AC419" s="200"/>
+      <c r="AD419" s="200"/>
+      <c r="AE419" s="200"/>
+      <c r="AF419" s="200"/>
+      <c r="AG419" s="200"/>
+      <c r="AH419" s="200"/>
+      <c r="AI419" s="200"/>
+    </row>
+    <row r="420" spans="2:35" s="187" customFormat="1">
+      <c r="B420" s="196"/>
       <c r="C420" s="106"/>
-      <c r="D420" s="205"/>
-      <c r="E420" s="207"/>
-      <c r="F420" s="205"/>
-      <c r="G420" s="205">
+      <c r="D420" s="199"/>
+      <c r="E420" s="201"/>
+      <c r="F420" s="199"/>
+      <c r="G420" s="199">
         <f>10^6</f>
         <v>1000000</v>
       </c>
-      <c r="H420" s="205" t="s">
-        <v>160</v>
-      </c>
-      <c r="I420" s="205"/>
+      <c r="H420" s="199" t="s">
+        <v>157</v>
+      </c>
+      <c r="I420" s="199"/>
       <c r="J420" s="106"/>
       <c r="K420" s="106"/>
       <c r="L420" s="106"/>
@@ -11497,31 +11396,31 @@
       <c r="W420" s="106"/>
       <c r="X420" s="106"/>
       <c r="Y420" s="106"/>
-      <c r="Z420" s="206"/>
-      <c r="AA420" s="206"/>
-      <c r="AB420" s="206"/>
-      <c r="AC420" s="206"/>
-      <c r="AD420" s="206"/>
-      <c r="AE420" s="206"/>
-      <c r="AF420" s="206"/>
-      <c r="AG420" s="206"/>
-      <c r="AH420" s="206"/>
-      <c r="AI420" s="206"/>
-    </row>
-    <row r="421" spans="2:35" s="193" customFormat="1">
-      <c r="B421" s="202"/>
+      <c r="Z420" s="200"/>
+      <c r="AA420" s="200"/>
+      <c r="AB420" s="200"/>
+      <c r="AC420" s="200"/>
+      <c r="AD420" s="200"/>
+      <c r="AE420" s="200"/>
+      <c r="AF420" s="200"/>
+      <c r="AG420" s="200"/>
+      <c r="AH420" s="200"/>
+      <c r="AI420" s="200"/>
+    </row>
+    <row r="421" spans="2:35" s="187" customFormat="1">
+      <c r="B421" s="196"/>
       <c r="C421" s="106"/>
-      <c r="D421" s="205"/>
-      <c r="E421" s="207"/>
-      <c r="F421" s="205"/>
-      <c r="G421" s="205">
+      <c r="D421" s="199"/>
+      <c r="E421" s="201"/>
+      <c r="F421" s="199"/>
+      <c r="G421" s="199">
         <f>G419/G420</f>
         <v>0.112</v>
       </c>
-      <c r="H421" s="205" t="s">
-        <v>159</v>
-      </c>
-      <c r="I421" s="205"/>
+      <c r="H421" s="199" t="s">
+        <v>156</v>
+      </c>
+      <c r="I421" s="199"/>
       <c r="J421" s="106"/>
       <c r="K421" s="106"/>
       <c r="L421" s="106"/>
@@ -11538,19 +11437,19 @@
       <c r="W421" s="106"/>
       <c r="X421" s="106"/>
       <c r="Y421" s="106"/>
-      <c r="Z421" s="206"/>
-      <c r="AA421" s="206"/>
-      <c r="AB421" s="206"/>
-      <c r="AC421" s="206"/>
-      <c r="AD421" s="206"/>
-      <c r="AE421" s="206"/>
-      <c r="AF421" s="206"/>
-      <c r="AG421" s="206"/>
-      <c r="AH421" s="206"/>
-      <c r="AI421" s="206"/>
-    </row>
-    <row r="422" spans="2:35" s="193" customFormat="1">
-      <c r="B422" s="202"/>
+      <c r="Z421" s="200"/>
+      <c r="AA421" s="200"/>
+      <c r="AB421" s="200"/>
+      <c r="AC421" s="200"/>
+      <c r="AD421" s="200"/>
+      <c r="AE421" s="200"/>
+      <c r="AF421" s="200"/>
+      <c r="AG421" s="200"/>
+      <c r="AH421" s="200"/>
+      <c r="AI421" s="200"/>
+    </row>
+    <row r="422" spans="2:35" s="187" customFormat="1">
+      <c r="B422" s="196"/>
       <c r="C422" s="106"/>
       <c r="D422" s="106"/>
       <c r="E422" s="106"/>
@@ -11574,736 +11473,736 @@
       <c r="W422" s="106"/>
       <c r="X422" s="106"/>
       <c r="Y422" s="106"/>
-      <c r="Z422" s="206"/>
-      <c r="AA422" s="206"/>
-      <c r="AB422" s="206"/>
-      <c r="AC422" s="206"/>
-      <c r="AD422" s="206"/>
-      <c r="AE422" s="206"/>
-      <c r="AF422" s="206"/>
-      <c r="AG422" s="206"/>
-      <c r="AH422" s="206"/>
-      <c r="AI422" s="206"/>
-    </row>
-    <row r="423" spans="2:35" s="193" customFormat="1">
-      <c r="B423" s="202"/>
-      <c r="C423" s="206"/>
-      <c r="D423" s="206"/>
-      <c r="E423" s="206"/>
-      <c r="F423" s="206"/>
-      <c r="G423" s="206"/>
-      <c r="H423" s="206"/>
-      <c r="I423" s="206"/>
-      <c r="J423" s="206"/>
-      <c r="K423" s="206"/>
-      <c r="L423" s="206"/>
-      <c r="M423" s="206"/>
-      <c r="N423" s="206"/>
-      <c r="O423" s="206"/>
-      <c r="P423" s="206"/>
-      <c r="Q423" s="206"/>
-      <c r="R423" s="206"/>
-      <c r="S423" s="206"/>
-      <c r="T423" s="206"/>
-      <c r="U423" s="206"/>
-      <c r="V423" s="206"/>
-      <c r="W423" s="206"/>
-      <c r="X423" s="206"/>
-      <c r="Y423" s="206"/>
-      <c r="Z423" s="206"/>
-      <c r="AA423" s="206"/>
-      <c r="AB423" s="206"/>
-      <c r="AC423" s="206"/>
-      <c r="AD423" s="206"/>
-      <c r="AE423" s="206"/>
-      <c r="AF423" s="206"/>
-      <c r="AG423" s="206"/>
-      <c r="AH423" s="206"/>
-      <c r="AI423" s="206"/>
-    </row>
-    <row r="424" spans="2:35" s="193" customFormat="1">
-      <c r="B424" s="202"/>
-      <c r="C424" s="206"/>
-      <c r="D424" s="206"/>
-      <c r="E424" s="206"/>
-      <c r="F424" s="206"/>
-      <c r="G424" s="206"/>
-      <c r="H424" s="206"/>
-      <c r="I424" s="206"/>
-      <c r="J424" s="206"/>
-      <c r="K424" s="206"/>
-      <c r="L424" s="206"/>
-      <c r="M424" s="206"/>
-      <c r="N424" s="206"/>
-      <c r="O424" s="206"/>
-      <c r="P424" s="206"/>
-      <c r="Q424" s="206"/>
-      <c r="R424" s="206"/>
-      <c r="S424" s="206"/>
-      <c r="T424" s="206"/>
-      <c r="U424" s="206"/>
-      <c r="V424" s="206"/>
-      <c r="W424" s="206"/>
-      <c r="X424" s="206"/>
-      <c r="Y424" s="206"/>
-      <c r="Z424" s="206"/>
-      <c r="AA424" s="206"/>
-      <c r="AB424" s="206"/>
-      <c r="AC424" s="206"/>
-      <c r="AD424" s="206"/>
-      <c r="AE424" s="206"/>
-      <c r="AF424" s="206"/>
-      <c r="AG424" s="206"/>
-      <c r="AH424" s="206"/>
-      <c r="AI424" s="206"/>
-    </row>
-    <row r="425" spans="2:35" s="193" customFormat="1">
-      <c r="B425" s="202"/>
-      <c r="C425" s="206"/>
-      <c r="D425" s="206"/>
-      <c r="E425" s="206"/>
-      <c r="F425" s="206"/>
-      <c r="G425" s="206"/>
-      <c r="H425" s="206"/>
-      <c r="I425" s="206"/>
-      <c r="J425" s="206"/>
-      <c r="K425" s="206"/>
-      <c r="L425" s="206"/>
-      <c r="M425" s="206"/>
-      <c r="N425" s="206"/>
-      <c r="O425" s="206"/>
-      <c r="P425" s="206"/>
-      <c r="Q425" s="206"/>
-      <c r="R425" s="206"/>
-      <c r="S425" s="206"/>
-      <c r="T425" s="206"/>
-      <c r="U425" s="206"/>
-      <c r="V425" s="206"/>
-      <c r="W425" s="206"/>
-      <c r="X425" s="206"/>
-      <c r="Y425" s="206"/>
-      <c r="Z425" s="206"/>
-      <c r="AA425" s="206"/>
-      <c r="AB425" s="206"/>
-      <c r="AC425" s="206"/>
-      <c r="AD425" s="206"/>
-      <c r="AE425" s="206"/>
-      <c r="AF425" s="206"/>
-      <c r="AG425" s="206"/>
-      <c r="AH425" s="206"/>
-      <c r="AI425" s="206"/>
-    </row>
-    <row r="426" spans="2:35" s="193" customFormat="1">
-      <c r="B426" s="202"/>
-      <c r="C426" s="206"/>
-      <c r="D426" s="206"/>
-      <c r="E426" s="206"/>
-      <c r="F426" s="206"/>
-      <c r="G426" s="206"/>
-      <c r="H426" s="206"/>
-      <c r="I426" s="206"/>
-      <c r="J426" s="206"/>
-      <c r="K426" s="206"/>
-      <c r="L426" s="206"/>
-      <c r="M426" s="206"/>
-      <c r="N426" s="206"/>
-      <c r="O426" s="206"/>
-      <c r="P426" s="206"/>
-      <c r="Q426" s="206"/>
-      <c r="R426" s="206"/>
-      <c r="S426" s="206"/>
-      <c r="T426" s="206"/>
-      <c r="U426" s="206"/>
-      <c r="V426" s="206"/>
-      <c r="W426" s="206"/>
-      <c r="X426" s="206"/>
-      <c r="Y426" s="206"/>
-      <c r="Z426" s="206"/>
-      <c r="AA426" s="206"/>
-      <c r="AB426" s="206"/>
-      <c r="AC426" s="206"/>
-      <c r="AD426" s="206"/>
-      <c r="AE426" s="206"/>
-      <c r="AF426" s="206"/>
-      <c r="AG426" s="206"/>
-      <c r="AH426" s="206"/>
-      <c r="AI426" s="206"/>
-    </row>
-    <row r="427" spans="2:35" s="193" customFormat="1">
-      <c r="B427" s="202"/>
-      <c r="C427" s="206"/>
-      <c r="D427" s="206"/>
-      <c r="E427" s="206"/>
-      <c r="F427" s="206"/>
-      <c r="G427" s="206"/>
-      <c r="H427" s="206"/>
-      <c r="I427" s="206"/>
-      <c r="J427" s="206"/>
-      <c r="K427" s="206"/>
-      <c r="L427" s="206"/>
-      <c r="M427" s="206"/>
-      <c r="N427" s="206"/>
-      <c r="O427" s="206"/>
-      <c r="P427" s="206"/>
-      <c r="Q427" s="206"/>
-      <c r="R427" s="206"/>
-      <c r="S427" s="206"/>
-      <c r="T427" s="206"/>
-      <c r="U427" s="206"/>
-      <c r="V427" s="206"/>
-      <c r="W427" s="206"/>
-      <c r="X427" s="206"/>
-      <c r="Y427" s="206"/>
-      <c r="Z427" s="206"/>
-      <c r="AA427" s="206"/>
-      <c r="AB427" s="206"/>
-      <c r="AC427" s="206"/>
-      <c r="AD427" s="206"/>
-      <c r="AE427" s="206"/>
-      <c r="AF427" s="206"/>
-      <c r="AG427" s="206"/>
-      <c r="AH427" s="206"/>
-      <c r="AI427" s="206"/>
-    </row>
-    <row r="428" spans="2:35" s="193" customFormat="1">
-      <c r="B428" s="202"/>
-      <c r="C428" s="206"/>
-      <c r="D428" s="206"/>
-      <c r="E428" s="206"/>
-      <c r="F428" s="206"/>
-      <c r="G428" s="206"/>
-      <c r="H428" s="206"/>
-      <c r="I428" s="206"/>
-      <c r="J428" s="206"/>
-      <c r="K428" s="206"/>
-      <c r="L428" s="206"/>
-      <c r="M428" s="206"/>
-      <c r="N428" s="206"/>
-      <c r="O428" s="206"/>
-      <c r="P428" s="206"/>
-      <c r="Q428" s="206"/>
-      <c r="R428" s="206"/>
-      <c r="S428" s="206"/>
-      <c r="T428" s="206"/>
-      <c r="U428" s="206"/>
-      <c r="V428" s="206"/>
-      <c r="W428" s="206"/>
-      <c r="X428" s="206"/>
-      <c r="Y428" s="206"/>
-      <c r="Z428" s="206"/>
-      <c r="AA428" s="206"/>
-      <c r="AB428" s="206"/>
-      <c r="AC428" s="206"/>
-      <c r="AD428" s="206"/>
-      <c r="AE428" s="206"/>
-      <c r="AF428" s="206"/>
-      <c r="AG428" s="206"/>
-      <c r="AH428" s="206"/>
-      <c r="AI428" s="206"/>
-    </row>
-    <row r="429" spans="2:35" s="193" customFormat="1">
-      <c r="B429" s="202"/>
-      <c r="C429" s="206"/>
-      <c r="D429" s="206"/>
-      <c r="E429" s="206"/>
-      <c r="F429" s="206"/>
-      <c r="G429" s="206"/>
-      <c r="H429" s="206"/>
-      <c r="I429" s="206"/>
-      <c r="J429" s="206"/>
-      <c r="K429" s="206"/>
-      <c r="L429" s="206"/>
-      <c r="M429" s="206"/>
-      <c r="N429" s="206"/>
-      <c r="O429" s="206"/>
-      <c r="P429" s="206"/>
-      <c r="Q429" s="206"/>
-      <c r="R429" s="206"/>
-      <c r="S429" s="206"/>
-      <c r="T429" s="206"/>
-      <c r="U429" s="206"/>
-      <c r="V429" s="206"/>
-      <c r="W429" s="206"/>
-      <c r="X429" s="206"/>
-      <c r="Y429" s="206"/>
-      <c r="Z429" s="206"/>
-      <c r="AA429" s="206"/>
-      <c r="AB429" s="206"/>
-      <c r="AC429" s="206"/>
-      <c r="AD429" s="206"/>
-      <c r="AE429" s="206"/>
-      <c r="AF429" s="206"/>
-      <c r="AG429" s="206"/>
-      <c r="AH429" s="206"/>
-      <c r="AI429" s="206"/>
-    </row>
-    <row r="430" spans="2:35" s="193" customFormat="1">
-      <c r="B430" s="202"/>
-      <c r="C430" s="206"/>
-      <c r="D430" s="206"/>
-      <c r="E430" s="206"/>
-      <c r="F430" s="206"/>
-      <c r="G430" s="206"/>
-      <c r="H430" s="206"/>
-      <c r="I430" s="206"/>
-      <c r="J430" s="206"/>
-      <c r="K430" s="206"/>
-      <c r="L430" s="206"/>
-      <c r="M430" s="206"/>
-      <c r="N430" s="206"/>
-      <c r="O430" s="206"/>
-      <c r="P430" s="206"/>
-      <c r="Q430" s="206"/>
-      <c r="R430" s="206"/>
-      <c r="S430" s="206"/>
-      <c r="T430" s="206"/>
-      <c r="U430" s="206"/>
-      <c r="V430" s="206"/>
-      <c r="W430" s="206"/>
-      <c r="X430" s="206"/>
-      <c r="Y430" s="206"/>
-      <c r="Z430" s="206"/>
-      <c r="AA430" s="206"/>
-      <c r="AB430" s="206"/>
-      <c r="AC430" s="206"/>
-      <c r="AD430" s="206"/>
-      <c r="AE430" s="206"/>
-      <c r="AF430" s="206"/>
-      <c r="AG430" s="206"/>
-      <c r="AH430" s="206"/>
-      <c r="AI430" s="206"/>
-    </row>
-    <row r="431" spans="2:35" s="193" customFormat="1">
-      <c r="B431" s="202"/>
-      <c r="C431" s="206"/>
-      <c r="D431" s="206"/>
-      <c r="E431" s="206"/>
-      <c r="F431" s="206"/>
-      <c r="G431" s="206"/>
-      <c r="H431" s="206"/>
-      <c r="I431" s="206"/>
-      <c r="J431" s="206"/>
-      <c r="K431" s="206"/>
-      <c r="L431" s="206"/>
-      <c r="M431" s="206"/>
-      <c r="N431" s="206"/>
-      <c r="O431" s="206"/>
-      <c r="P431" s="206"/>
-      <c r="Q431" s="206"/>
-      <c r="R431" s="206"/>
-      <c r="S431" s="206"/>
-      <c r="T431" s="206"/>
-      <c r="U431" s="206"/>
-      <c r="V431" s="206"/>
-      <c r="W431" s="206"/>
-      <c r="X431" s="206"/>
-      <c r="Y431" s="206"/>
-      <c r="Z431" s="206"/>
-      <c r="AA431" s="206"/>
-      <c r="AB431" s="206"/>
-      <c r="AC431" s="206"/>
-      <c r="AD431" s="206"/>
-      <c r="AE431" s="206"/>
-      <c r="AF431" s="206"/>
-      <c r="AG431" s="206"/>
-      <c r="AH431" s="206"/>
-      <c r="AI431" s="206"/>
-    </row>
-    <row r="432" spans="2:35" s="193" customFormat="1">
-      <c r="B432" s="202"/>
-      <c r="C432" s="206"/>
-      <c r="D432" s="206"/>
-      <c r="E432" s="206"/>
-      <c r="F432" s="206"/>
-      <c r="G432" s="206"/>
-      <c r="H432" s="206"/>
-      <c r="I432" s="206"/>
-      <c r="J432" s="206"/>
-      <c r="K432" s="206"/>
-      <c r="L432" s="206"/>
-      <c r="M432" s="206"/>
-      <c r="N432" s="206"/>
-      <c r="O432" s="206"/>
-      <c r="P432" s="206"/>
-      <c r="Q432" s="206"/>
-      <c r="R432" s="206"/>
-      <c r="S432" s="206"/>
-      <c r="T432" s="206"/>
-      <c r="U432" s="206"/>
-      <c r="V432" s="206"/>
-      <c r="W432" s="206"/>
-      <c r="X432" s="206"/>
-      <c r="Y432" s="206"/>
-      <c r="Z432" s="206"/>
-      <c r="AA432" s="206"/>
-      <c r="AB432" s="206"/>
-      <c r="AC432" s="206"/>
-      <c r="AD432" s="206"/>
-      <c r="AE432" s="206"/>
-      <c r="AF432" s="206"/>
-      <c r="AG432" s="206"/>
-      <c r="AH432" s="206"/>
-      <c r="AI432" s="206"/>
-    </row>
-    <row r="433" spans="2:35" s="193" customFormat="1">
-      <c r="B433" s="202"/>
-      <c r="C433" s="206"/>
-      <c r="D433" s="206"/>
-      <c r="E433" s="206"/>
-      <c r="F433" s="206"/>
-      <c r="G433" s="206"/>
-      <c r="H433" s="206"/>
-      <c r="I433" s="206"/>
-      <c r="J433" s="206"/>
-      <c r="K433" s="206"/>
-      <c r="L433" s="206"/>
-      <c r="M433" s="206"/>
-      <c r="N433" s="206"/>
-      <c r="O433" s="206"/>
-      <c r="P433" s="206"/>
-      <c r="Q433" s="206"/>
-      <c r="R433" s="206"/>
-      <c r="S433" s="206"/>
-      <c r="T433" s="206"/>
-      <c r="U433" s="206"/>
-      <c r="V433" s="206"/>
-      <c r="W433" s="206"/>
-      <c r="X433" s="206"/>
-      <c r="Y433" s="206"/>
-      <c r="Z433" s="206"/>
-      <c r="AA433" s="206"/>
-      <c r="AB433" s="206"/>
-      <c r="AC433" s="206"/>
-      <c r="AD433" s="206"/>
-      <c r="AE433" s="206"/>
-      <c r="AF433" s="206"/>
-      <c r="AG433" s="206"/>
-      <c r="AH433" s="206"/>
-      <c r="AI433" s="206"/>
-    </row>
-    <row r="434" spans="2:35" s="193" customFormat="1">
-      <c r="B434" s="202"/>
-      <c r="C434" s="206"/>
-      <c r="D434" s="206"/>
-      <c r="E434" s="206"/>
-      <c r="F434" s="206"/>
-      <c r="G434" s="206"/>
-      <c r="H434" s="206"/>
-      <c r="I434" s="206"/>
-      <c r="J434" s="206"/>
-      <c r="K434" s="206"/>
-      <c r="L434" s="206"/>
-      <c r="M434" s="206"/>
-      <c r="N434" s="206"/>
-      <c r="O434" s="206"/>
-      <c r="P434" s="206"/>
-      <c r="Q434" s="206"/>
-      <c r="R434" s="206"/>
-      <c r="S434" s="206"/>
-      <c r="T434" s="206"/>
-      <c r="U434" s="206"/>
-      <c r="V434" s="206"/>
-      <c r="W434" s="206"/>
-      <c r="X434" s="206"/>
-      <c r="Y434" s="206"/>
-      <c r="Z434" s="206"/>
-      <c r="AA434" s="206"/>
-      <c r="AB434" s="206"/>
-      <c r="AC434" s="206"/>
-      <c r="AD434" s="206"/>
-      <c r="AE434" s="206"/>
-      <c r="AF434" s="206"/>
-      <c r="AG434" s="206"/>
-      <c r="AH434" s="206"/>
-      <c r="AI434" s="206"/>
-    </row>
-    <row r="435" spans="2:35" s="193" customFormat="1">
-      <c r="B435" s="202"/>
-      <c r="C435" s="206"/>
-      <c r="D435" s="206"/>
-      <c r="E435" s="206"/>
-      <c r="F435" s="206"/>
-      <c r="G435" s="206"/>
-      <c r="H435" s="206"/>
-      <c r="I435" s="206"/>
-      <c r="J435" s="206"/>
-      <c r="K435" s="206"/>
-      <c r="L435" s="206"/>
-      <c r="M435" s="206"/>
-      <c r="N435" s="206"/>
-      <c r="O435" s="206"/>
-      <c r="P435" s="206"/>
-      <c r="Q435" s="206"/>
-      <c r="R435" s="206"/>
-      <c r="S435" s="206"/>
-      <c r="T435" s="206"/>
-      <c r="U435" s="206"/>
-      <c r="V435" s="206"/>
-      <c r="W435" s="206"/>
-      <c r="X435" s="206"/>
-      <c r="Y435" s="206"/>
-      <c r="Z435" s="206"/>
-      <c r="AA435" s="206"/>
-      <c r="AB435" s="206"/>
-      <c r="AC435" s="206"/>
-      <c r="AD435" s="206"/>
-      <c r="AE435" s="206"/>
-      <c r="AF435" s="206"/>
-      <c r="AG435" s="206"/>
-      <c r="AH435" s="206"/>
-      <c r="AI435" s="206"/>
-    </row>
-    <row r="436" spans="2:35" s="193" customFormat="1">
-      <c r="B436" s="202"/>
-      <c r="C436" s="206"/>
-      <c r="D436" s="206"/>
-      <c r="E436" s="206"/>
-      <c r="F436" s="206"/>
-      <c r="G436" s="206"/>
-      <c r="H436" s="206"/>
-      <c r="I436" s="206"/>
-      <c r="J436" s="206"/>
-      <c r="K436" s="206"/>
-      <c r="L436" s="206"/>
-      <c r="M436" s="206"/>
-      <c r="N436" s="206"/>
-      <c r="O436" s="206"/>
-      <c r="P436" s="206"/>
-      <c r="Q436" s="206"/>
-      <c r="R436" s="206"/>
-      <c r="S436" s="206"/>
-      <c r="T436" s="206"/>
-      <c r="U436" s="206"/>
-      <c r="V436" s="206"/>
-      <c r="W436" s="206"/>
-      <c r="X436" s="206"/>
-      <c r="Y436" s="206"/>
-      <c r="Z436" s="206"/>
-      <c r="AA436" s="206"/>
-      <c r="AB436" s="206"/>
-      <c r="AC436" s="206"/>
-      <c r="AD436" s="206"/>
-      <c r="AE436" s="206"/>
-      <c r="AF436" s="206"/>
-      <c r="AG436" s="206"/>
-      <c r="AH436" s="206"/>
-      <c r="AI436" s="206"/>
-    </row>
-    <row r="437" spans="2:35" s="193" customFormat="1">
-      <c r="B437" s="202"/>
-      <c r="C437" s="206"/>
-      <c r="D437" s="206"/>
-      <c r="E437" s="206"/>
-      <c r="F437" s="206"/>
-      <c r="G437" s="206"/>
-      <c r="H437" s="206"/>
-      <c r="I437" s="206"/>
-      <c r="J437" s="206"/>
-      <c r="K437" s="206"/>
-      <c r="L437" s="206"/>
-      <c r="M437" s="206"/>
-      <c r="N437" s="206"/>
-      <c r="O437" s="206"/>
-      <c r="P437" s="206"/>
-      <c r="Q437" s="206"/>
-      <c r="R437" s="206"/>
-      <c r="S437" s="206"/>
-      <c r="T437" s="206"/>
-      <c r="U437" s="206"/>
-      <c r="V437" s="206"/>
-      <c r="W437" s="206"/>
-      <c r="X437" s="206"/>
-      <c r="Y437" s="206"/>
-      <c r="Z437" s="206"/>
-      <c r="AA437" s="206"/>
-      <c r="AB437" s="206"/>
-      <c r="AC437" s="206"/>
-      <c r="AD437" s="206"/>
-      <c r="AE437" s="206"/>
-      <c r="AF437" s="206"/>
-      <c r="AG437" s="206"/>
-      <c r="AH437" s="206"/>
-      <c r="AI437" s="206"/>
-    </row>
-    <row r="438" spans="2:35" s="193" customFormat="1">
-      <c r="B438" s="202"/>
-      <c r="C438" s="206"/>
-      <c r="D438" s="206"/>
-      <c r="E438" s="206"/>
-      <c r="F438" s="206"/>
-      <c r="G438" s="206"/>
-      <c r="H438" s="206"/>
-      <c r="I438" s="206"/>
-      <c r="J438" s="206"/>
-      <c r="K438" s="206"/>
-      <c r="L438" s="206"/>
-      <c r="M438" s="206"/>
-      <c r="N438" s="206"/>
-      <c r="O438" s="206"/>
-      <c r="P438" s="206"/>
-      <c r="Q438" s="206"/>
-      <c r="R438" s="206"/>
-      <c r="S438" s="206"/>
-      <c r="T438" s="206"/>
-      <c r="U438" s="206"/>
-      <c r="V438" s="206"/>
-      <c r="W438" s="206"/>
-      <c r="X438" s="206"/>
-      <c r="Y438" s="206"/>
-      <c r="Z438" s="206"/>
-      <c r="AA438" s="206"/>
-      <c r="AB438" s="206"/>
-      <c r="AC438" s="206"/>
-      <c r="AD438" s="206"/>
-      <c r="AE438" s="206"/>
-      <c r="AF438" s="206"/>
-      <c r="AG438" s="206"/>
-      <c r="AH438" s="206"/>
-      <c r="AI438" s="206"/>
-    </row>
-    <row r="439" spans="2:35" s="193" customFormat="1">
-      <c r="B439" s="202"/>
-      <c r="C439" s="206"/>
-      <c r="D439" s="206"/>
-      <c r="E439" s="206"/>
-      <c r="F439" s="206"/>
-      <c r="G439" s="206"/>
-      <c r="H439" s="206"/>
-      <c r="I439" s="206"/>
-      <c r="J439" s="206"/>
-      <c r="K439" s="206"/>
-      <c r="L439" s="206"/>
-      <c r="M439" s="206"/>
-      <c r="N439" s="206"/>
-      <c r="O439" s="206"/>
-      <c r="P439" s="206"/>
-      <c r="Q439" s="206"/>
-      <c r="R439" s="206"/>
-      <c r="S439" s="206"/>
-      <c r="T439" s="206"/>
-      <c r="U439" s="206"/>
-      <c r="V439" s="206"/>
-      <c r="W439" s="206"/>
-      <c r="X439" s="206"/>
-      <c r="Y439" s="206"/>
-      <c r="Z439" s="206"/>
-      <c r="AA439" s="206"/>
-      <c r="AB439" s="206"/>
-      <c r="AC439" s="206"/>
-      <c r="AD439" s="206"/>
-      <c r="AE439" s="206"/>
-      <c r="AF439" s="206"/>
-      <c r="AG439" s="206"/>
-      <c r="AH439" s="206"/>
-      <c r="AI439" s="206"/>
-    </row>
-    <row r="440" spans="2:35" s="193" customFormat="1">
-      <c r="B440" s="202"/>
-      <c r="C440" s="206"/>
-      <c r="D440" s="206"/>
-      <c r="E440" s="206"/>
-      <c r="F440" s="206"/>
-      <c r="G440" s="206"/>
-      <c r="H440" s="206"/>
-      <c r="I440" s="206"/>
-      <c r="J440" s="206"/>
-      <c r="K440" s="206"/>
-      <c r="L440" s="206"/>
-      <c r="M440" s="206"/>
-      <c r="N440" s="206"/>
-      <c r="O440" s="206"/>
-      <c r="P440" s="206"/>
-      <c r="Q440" s="206"/>
-      <c r="R440" s="206"/>
-      <c r="S440" s="206"/>
-      <c r="T440" s="206"/>
-      <c r="U440" s="206"/>
-      <c r="V440" s="206"/>
-      <c r="W440" s="206"/>
-      <c r="X440" s="206"/>
-      <c r="Y440" s="206"/>
-      <c r="Z440" s="206"/>
-      <c r="AA440" s="206"/>
-      <c r="AB440" s="206"/>
-      <c r="AC440" s="206"/>
-      <c r="AD440" s="206"/>
-      <c r="AE440" s="206"/>
-      <c r="AF440" s="206"/>
-      <c r="AG440" s="206"/>
-      <c r="AH440" s="206"/>
-      <c r="AI440" s="206"/>
-    </row>
-    <row r="441" spans="2:35" s="193" customFormat="1">
-      <c r="B441" s="202"/>
-      <c r="C441" s="206"/>
-      <c r="D441" s="206"/>
-      <c r="E441" s="206"/>
-      <c r="F441" s="206"/>
-      <c r="G441" s="206"/>
-      <c r="H441" s="206"/>
-      <c r="I441" s="206"/>
-      <c r="J441" s="206"/>
-      <c r="K441" s="206"/>
-      <c r="L441" s="206"/>
-      <c r="M441" s="206"/>
-      <c r="N441" s="206"/>
-      <c r="O441" s="206"/>
-      <c r="P441" s="206"/>
-      <c r="Q441" s="206"/>
-      <c r="R441" s="206"/>
-      <c r="S441" s="206"/>
-      <c r="T441" s="206"/>
-      <c r="U441" s="206"/>
-      <c r="V441" s="206"/>
-      <c r="W441" s="206"/>
-      <c r="X441" s="206"/>
-      <c r="Y441" s="206"/>
-      <c r="Z441" s="206"/>
-      <c r="AA441" s="206"/>
-      <c r="AB441" s="206"/>
-      <c r="AC441" s="206"/>
-      <c r="AD441" s="206"/>
-      <c r="AE441" s="206"/>
-      <c r="AF441" s="206"/>
-      <c r="AG441" s="206"/>
-      <c r="AH441" s="206"/>
-      <c r="AI441" s="206"/>
-    </row>
-    <row r="442" spans="2:35" s="193" customFormat="1">
-      <c r="B442" s="202"/>
-      <c r="C442" s="206"/>
-      <c r="D442" s="206"/>
-      <c r="E442" s="206"/>
-      <c r="F442" s="206"/>
-      <c r="G442" s="206"/>
-      <c r="H442" s="206"/>
-      <c r="I442" s="206"/>
-      <c r="J442" s="206"/>
-      <c r="K442" s="206"/>
-      <c r="L442" s="206"/>
-      <c r="M442" s="206"/>
-      <c r="N442" s="206"/>
-      <c r="O442" s="206"/>
-      <c r="P442" s="206"/>
-      <c r="Q442" s="206"/>
-      <c r="R442" s="206"/>
-      <c r="S442" s="206"/>
-      <c r="T442" s="206"/>
-      <c r="U442" s="206"/>
-      <c r="V442" s="206"/>
-      <c r="W442" s="206"/>
-      <c r="X442" s="206"/>
-      <c r="Y442" s="206"/>
-      <c r="Z442" s="206"/>
-      <c r="AA442" s="206"/>
-      <c r="AB442" s="206"/>
-      <c r="AC442" s="206"/>
-      <c r="AD442" s="206"/>
-      <c r="AE442" s="206"/>
-      <c r="AF442" s="206"/>
-      <c r="AG442" s="206"/>
-      <c r="AH442" s="206"/>
-      <c r="AI442" s="206"/>
+      <c r="Z422" s="200"/>
+      <c r="AA422" s="200"/>
+      <c r="AB422" s="200"/>
+      <c r="AC422" s="200"/>
+      <c r="AD422" s="200"/>
+      <c r="AE422" s="200"/>
+      <c r="AF422" s="200"/>
+      <c r="AG422" s="200"/>
+      <c r="AH422" s="200"/>
+      <c r="AI422" s="200"/>
+    </row>
+    <row r="423" spans="2:35" s="187" customFormat="1">
+      <c r="B423" s="196"/>
+      <c r="C423" s="200"/>
+      <c r="D423" s="200"/>
+      <c r="E423" s="200"/>
+      <c r="F423" s="200"/>
+      <c r="G423" s="200"/>
+      <c r="H423" s="200"/>
+      <c r="I423" s="200"/>
+      <c r="J423" s="200"/>
+      <c r="K423" s="200"/>
+      <c r="L423" s="200"/>
+      <c r="M423" s="200"/>
+      <c r="N423" s="200"/>
+      <c r="O423" s="200"/>
+      <c r="P423" s="200"/>
+      <c r="Q423" s="200"/>
+      <c r="R423" s="200"/>
+      <c r="S423" s="200"/>
+      <c r="T423" s="200"/>
+      <c r="U423" s="200"/>
+      <c r="V423" s="200"/>
+      <c r="W423" s="200"/>
+      <c r="X423" s="200"/>
+      <c r="Y423" s="200"/>
+      <c r="Z423" s="200"/>
+      <c r="AA423" s="200"/>
+      <c r="AB423" s="200"/>
+      <c r="AC423" s="200"/>
+      <c r="AD423" s="200"/>
+      <c r="AE423" s="200"/>
+      <c r="AF423" s="200"/>
+      <c r="AG423" s="200"/>
+      <c r="AH423" s="200"/>
+      <c r="AI423" s="200"/>
+    </row>
+    <row r="424" spans="2:35" s="187" customFormat="1">
+      <c r="B424" s="196"/>
+      <c r="C424" s="200"/>
+      <c r="D424" s="200"/>
+      <c r="E424" s="200"/>
+      <c r="F424" s="200"/>
+      <c r="G424" s="200"/>
+      <c r="H424" s="200"/>
+      <c r="I424" s="200"/>
+      <c r="J424" s="200"/>
+      <c r="K424" s="200"/>
+      <c r="L424" s="200"/>
+      <c r="M424" s="200"/>
+      <c r="N424" s="200"/>
+      <c r="O424" s="200"/>
+      <c r="P424" s="200"/>
+      <c r="Q424" s="200"/>
+      <c r="R424" s="200"/>
+      <c r="S424" s="200"/>
+      <c r="T424" s="200"/>
+      <c r="U424" s="200"/>
+      <c r="V424" s="200"/>
+      <c r="W424" s="200"/>
+      <c r="X424" s="200"/>
+      <c r="Y424" s="200"/>
+      <c r="Z424" s="200"/>
+      <c r="AA424" s="200"/>
+      <c r="AB424" s="200"/>
+      <c r="AC424" s="200"/>
+      <c r="AD424" s="200"/>
+      <c r="AE424" s="200"/>
+      <c r="AF424" s="200"/>
+      <c r="AG424" s="200"/>
+      <c r="AH424" s="200"/>
+      <c r="AI424" s="200"/>
+    </row>
+    <row r="425" spans="2:35" s="187" customFormat="1">
+      <c r="B425" s="196"/>
+      <c r="C425" s="200"/>
+      <c r="D425" s="200"/>
+      <c r="E425" s="200"/>
+      <c r="F425" s="200"/>
+      <c r="G425" s="200"/>
+      <c r="H425" s="200"/>
+      <c r="I425" s="200"/>
+      <c r="J425" s="200"/>
+      <c r="K425" s="200"/>
+      <c r="L425" s="200"/>
+      <c r="M425" s="200"/>
+      <c r="N425" s="200"/>
+      <c r="O425" s="200"/>
+      <c r="P425" s="200"/>
+      <c r="Q425" s="200"/>
+      <c r="R425" s="200"/>
+      <c r="S425" s="200"/>
+      <c r="T425" s="200"/>
+      <c r="U425" s="200"/>
+      <c r="V425" s="200"/>
+      <c r="W425" s="200"/>
+      <c r="X425" s="200"/>
+      <c r="Y425" s="200"/>
+      <c r="Z425" s="200"/>
+      <c r="AA425" s="200"/>
+      <c r="AB425" s="200"/>
+      <c r="AC425" s="200"/>
+      <c r="AD425" s="200"/>
+      <c r="AE425" s="200"/>
+      <c r="AF425" s="200"/>
+      <c r="AG425" s="200"/>
+      <c r="AH425" s="200"/>
+      <c r="AI425" s="200"/>
+    </row>
+    <row r="426" spans="2:35" s="187" customFormat="1">
+      <c r="B426" s="196"/>
+      <c r="C426" s="200"/>
+      <c r="D426" s="200"/>
+      <c r="E426" s="200"/>
+      <c r="F426" s="200"/>
+      <c r="G426" s="200"/>
+      <c r="H426" s="200"/>
+      <c r="I426" s="200"/>
+      <c r="J426" s="200"/>
+      <c r="K426" s="200"/>
+      <c r="L426" s="200"/>
+      <c r="M426" s="200"/>
+      <c r="N426" s="200"/>
+      <c r="O426" s="200"/>
+      <c r="P426" s="200"/>
+      <c r="Q426" s="200"/>
+      <c r="R426" s="200"/>
+      <c r="S426" s="200"/>
+      <c r="T426" s="200"/>
+      <c r="U426" s="200"/>
+      <c r="V426" s="200"/>
+      <c r="W426" s="200"/>
+      <c r="X426" s="200"/>
+      <c r="Y426" s="200"/>
+      <c r="Z426" s="200"/>
+      <c r="AA426" s="200"/>
+      <c r="AB426" s="200"/>
+      <c r="AC426" s="200"/>
+      <c r="AD426" s="200"/>
+      <c r="AE426" s="200"/>
+      <c r="AF426" s="200"/>
+      <c r="AG426" s="200"/>
+      <c r="AH426" s="200"/>
+      <c r="AI426" s="200"/>
+    </row>
+    <row r="427" spans="2:35" s="187" customFormat="1">
+      <c r="B427" s="196"/>
+      <c r="C427" s="200"/>
+      <c r="D427" s="200"/>
+      <c r="E427" s="200"/>
+      <c r="F427" s="200"/>
+      <c r="G427" s="200"/>
+      <c r="H427" s="200"/>
+      <c r="I427" s="200"/>
+      <c r="J427" s="200"/>
+      <c r="K427" s="200"/>
+      <c r="L427" s="200"/>
+      <c r="M427" s="200"/>
+      <c r="N427" s="200"/>
+      <c r="O427" s="200"/>
+      <c r="P427" s="200"/>
+      <c r="Q427" s="200"/>
+      <c r="R427" s="200"/>
+      <c r="S427" s="200"/>
+      <c r="T427" s="200"/>
+      <c r="U427" s="200"/>
+      <c r="V427" s="200"/>
+      <c r="W427" s="200"/>
+      <c r="X427" s="200"/>
+      <c r="Y427" s="200"/>
+      <c r="Z427" s="200"/>
+      <c r="AA427" s="200"/>
+      <c r="AB427" s="200"/>
+      <c r="AC427" s="200"/>
+      <c r="AD427" s="200"/>
+      <c r="AE427" s="200"/>
+      <c r="AF427" s="200"/>
+      <c r="AG427" s="200"/>
+      <c r="AH427" s="200"/>
+      <c r="AI427" s="200"/>
+    </row>
+    <row r="428" spans="2:35" s="187" customFormat="1">
+      <c r="B428" s="196"/>
+      <c r="C428" s="200"/>
+      <c r="D428" s="200"/>
+      <c r="E428" s="200"/>
+      <c r="F428" s="200"/>
+      <c r="G428" s="200"/>
+      <c r="H428" s="200"/>
+      <c r="I428" s="200"/>
+      <c r="J428" s="200"/>
+      <c r="K428" s="200"/>
+      <c r="L428" s="200"/>
+      <c r="M428" s="200"/>
+      <c r="N428" s="200"/>
+      <c r="O428" s="200"/>
+      <c r="P428" s="200"/>
+      <c r="Q428" s="200"/>
+      <c r="R428" s="200"/>
+      <c r="S428" s="200"/>
+      <c r="T428" s="200"/>
+      <c r="U428" s="200"/>
+      <c r="V428" s="200"/>
+      <c r="W428" s="200"/>
+      <c r="X428" s="200"/>
+      <c r="Y428" s="200"/>
+      <c r="Z428" s="200"/>
+      <c r="AA428" s="200"/>
+      <c r="AB428" s="200"/>
+      <c r="AC428" s="200"/>
+      <c r="AD428" s="200"/>
+      <c r="AE428" s="200"/>
+      <c r="AF428" s="200"/>
+      <c r="AG428" s="200"/>
+      <c r="AH428" s="200"/>
+      <c r="AI428" s="200"/>
+    </row>
+    <row r="429" spans="2:35" s="187" customFormat="1">
+      <c r="B429" s="196"/>
+      <c r="C429" s="200"/>
+      <c r="D429" s="200"/>
+      <c r="E429" s="200"/>
+      <c r="F429" s="200"/>
+      <c r="G429" s="200"/>
+      <c r="H429" s="200"/>
+      <c r="I429" s="200"/>
+      <c r="J429" s="200"/>
+      <c r="K429" s="200"/>
+      <c r="L429" s="200"/>
+      <c r="M429" s="200"/>
+      <c r="N429" s="200"/>
+      <c r="O429" s="200"/>
+      <c r="P429" s="200"/>
+      <c r="Q429" s="200"/>
+      <c r="R429" s="200"/>
+      <c r="S429" s="200"/>
+      <c r="T429" s="200"/>
+      <c r="U429" s="200"/>
+      <c r="V429" s="200"/>
+      <c r="W429" s="200"/>
+      <c r="X429" s="200"/>
+      <c r="Y429" s="200"/>
+      <c r="Z429" s="200"/>
+      <c r="AA429" s="200"/>
+      <c r="AB429" s="200"/>
+      <c r="AC429" s="200"/>
+      <c r="AD429" s="200"/>
+      <c r="AE429" s="200"/>
+      <c r="AF429" s="200"/>
+      <c r="AG429" s="200"/>
+      <c r="AH429" s="200"/>
+      <c r="AI429" s="200"/>
+    </row>
+    <row r="430" spans="2:35" s="187" customFormat="1">
+      <c r="B430" s="196"/>
+      <c r="C430" s="200"/>
+      <c r="D430" s="200"/>
+      <c r="E430" s="200"/>
+      <c r="F430" s="200"/>
+      <c r="G430" s="200"/>
+      <c r="H430" s="200"/>
+      <c r="I430" s="200"/>
+      <c r="J430" s="200"/>
+      <c r="K430" s="200"/>
+      <c r="L430" s="200"/>
+      <c r="M430" s="200"/>
+      <c r="N430" s="200"/>
+      <c r="O430" s="200"/>
+      <c r="P430" s="200"/>
+      <c r="Q430" s="200"/>
+      <c r="R430" s="200"/>
+      <c r="S430" s="200"/>
+      <c r="T430" s="200"/>
+      <c r="U430" s="200"/>
+      <c r="V430" s="200"/>
+      <c r="W430" s="200"/>
+      <c r="X430" s="200"/>
+      <c r="Y430" s="200"/>
+      <c r="Z430" s="200"/>
+      <c r="AA430" s="200"/>
+      <c r="AB430" s="200"/>
+      <c r="AC430" s="200"/>
+      <c r="AD430" s="200"/>
+      <c r="AE430" s="200"/>
+      <c r="AF430" s="200"/>
+      <c r="AG430" s="200"/>
+      <c r="AH430" s="200"/>
+      <c r="AI430" s="200"/>
+    </row>
+    <row r="431" spans="2:35" s="187" customFormat="1">
+      <c r="B431" s="196"/>
+      <c r="C431" s="200"/>
+      <c r="D431" s="200"/>
+      <c r="E431" s="200"/>
+      <c r="F431" s="200"/>
+      <c r="G431" s="200"/>
+      <c r="H431" s="200"/>
+      <c r="I431" s="200"/>
+      <c r="J431" s="200"/>
+      <c r="K431" s="200"/>
+      <c r="L431" s="200"/>
+      <c r="M431" s="200"/>
+      <c r="N431" s="200"/>
+      <c r="O431" s="200"/>
+      <c r="P431" s="200"/>
+      <c r="Q431" s="200"/>
+      <c r="R431" s="200"/>
+      <c r="S431" s="200"/>
+      <c r="T431" s="200"/>
+      <c r="U431" s="200"/>
+      <c r="V431" s="200"/>
+      <c r="W431" s="200"/>
+      <c r="X431" s="200"/>
+      <c r="Y431" s="200"/>
+      <c r="Z431" s="200"/>
+      <c r="AA431" s="200"/>
+      <c r="AB431" s="200"/>
+      <c r="AC431" s="200"/>
+      <c r="AD431" s="200"/>
+      <c r="AE431" s="200"/>
+      <c r="AF431" s="200"/>
+      <c r="AG431" s="200"/>
+      <c r="AH431" s="200"/>
+      <c r="AI431" s="200"/>
+    </row>
+    <row r="432" spans="2:35" s="187" customFormat="1">
+      <c r="B432" s="196"/>
+      <c r="C432" s="200"/>
+      <c r="D432" s="200"/>
+      <c r="E432" s="200"/>
+      <c r="F432" s="200"/>
+      <c r="G432" s="200"/>
+      <c r="H432" s="200"/>
+      <c r="I432" s="200"/>
+      <c r="J432" s="200"/>
+      <c r="K432" s="200"/>
+      <c r="L432" s="200"/>
+      <c r="M432" s="200"/>
+      <c r="N432" s="200"/>
+      <c r="O432" s="200"/>
+      <c r="P432" s="200"/>
+      <c r="Q432" s="200"/>
+      <c r="R432" s="200"/>
+      <c r="S432" s="200"/>
+      <c r="T432" s="200"/>
+      <c r="U432" s="200"/>
+      <c r="V432" s="200"/>
+      <c r="W432" s="200"/>
+      <c r="X432" s="200"/>
+      <c r="Y432" s="200"/>
+      <c r="Z432" s="200"/>
+      <c r="AA432" s="200"/>
+      <c r="AB432" s="200"/>
+      <c r="AC432" s="200"/>
+      <c r="AD432" s="200"/>
+      <c r="AE432" s="200"/>
+      <c r="AF432" s="200"/>
+      <c r="AG432" s="200"/>
+      <c r="AH432" s="200"/>
+      <c r="AI432" s="200"/>
+    </row>
+    <row r="433" spans="2:35" s="187" customFormat="1">
+      <c r="B433" s="196"/>
+      <c r="C433" s="200"/>
+      <c r="D433" s="200"/>
+      <c r="E433" s="200"/>
+      <c r="F433" s="200"/>
+      <c r="G433" s="200"/>
+      <c r="H433" s="200"/>
+      <c r="I433" s="200"/>
+      <c r="J433" s="200"/>
+      <c r="K433" s="200"/>
+      <c r="L433" s="200"/>
+      <c r="M433" s="200"/>
+      <c r="N433" s="200"/>
+      <c r="O433" s="200"/>
+      <c r="P433" s="200"/>
+      <c r="Q433" s="200"/>
+      <c r="R433" s="200"/>
+      <c r="S433" s="200"/>
+      <c r="T433" s="200"/>
+      <c r="U433" s="200"/>
+      <c r="V433" s="200"/>
+      <c r="W433" s="200"/>
+      <c r="X433" s="200"/>
+      <c r="Y433" s="200"/>
+      <c r="Z433" s="200"/>
+      <c r="AA433" s="200"/>
+      <c r="AB433" s="200"/>
+      <c r="AC433" s="200"/>
+      <c r="AD433" s="200"/>
+      <c r="AE433" s="200"/>
+      <c r="AF433" s="200"/>
+      <c r="AG433" s="200"/>
+      <c r="AH433" s="200"/>
+      <c r="AI433" s="200"/>
+    </row>
+    <row r="434" spans="2:35" s="187" customFormat="1">
+      <c r="B434" s="196"/>
+      <c r="C434" s="200"/>
+      <c r="D434" s="200"/>
+      <c r="E434" s="200"/>
+      <c r="F434" s="200"/>
+      <c r="G434" s="200"/>
+      <c r="H434" s="200"/>
+      <c r="I434" s="200"/>
+      <c r="J434" s="200"/>
+      <c r="K434" s="200"/>
+      <c r="L434" s="200"/>
+      <c r="M434" s="200"/>
+      <c r="N434" s="200"/>
+      <c r="O434" s="200"/>
+      <c r="P434" s="200"/>
+      <c r="Q434" s="200"/>
+      <c r="R434" s="200"/>
+      <c r="S434" s="200"/>
+      <c r="T434" s="200"/>
+      <c r="U434" s="200"/>
+      <c r="V434" s="200"/>
+      <c r="W434" s="200"/>
+      <c r="X434" s="200"/>
+      <c r="Y434" s="200"/>
+      <c r="Z434" s="200"/>
+      <c r="AA434" s="200"/>
+      <c r="AB434" s="200"/>
+      <c r="AC434" s="200"/>
+      <c r="AD434" s="200"/>
+      <c r="AE434" s="200"/>
+      <c r="AF434" s="200"/>
+      <c r="AG434" s="200"/>
+      <c r="AH434" s="200"/>
+      <c r="AI434" s="200"/>
+    </row>
+    <row r="435" spans="2:35" s="187" customFormat="1">
+      <c r="B435" s="196"/>
+      <c r="C435" s="200"/>
+      <c r="D435" s="200"/>
+      <c r="E435" s="200"/>
+      <c r="F435" s="200"/>
+      <c r="G435" s="200"/>
+      <c r="H435" s="200"/>
+      <c r="I435" s="200"/>
+      <c r="J435" s="200"/>
+      <c r="K435" s="200"/>
+      <c r="L435" s="200"/>
+      <c r="M435" s="200"/>
+      <c r="N435" s="200"/>
+      <c r="O435" s="200"/>
+      <c r="P435" s="200"/>
+      <c r="Q435" s="200"/>
+      <c r="R435" s="200"/>
+      <c r="S435" s="200"/>
+      <c r="T435" s="200"/>
+      <c r="U435" s="200"/>
+      <c r="V435" s="200"/>
+      <c r="W435" s="200"/>
+      <c r="X435" s="200"/>
+      <c r="Y435" s="200"/>
+      <c r="Z435" s="200"/>
+      <c r="AA435" s="200"/>
+      <c r="AB435" s="200"/>
+      <c r="AC435" s="200"/>
+      <c r="AD435" s="200"/>
+      <c r="AE435" s="200"/>
+      <c r="AF435" s="200"/>
+      <c r="AG435" s="200"/>
+      <c r="AH435" s="200"/>
+      <c r="AI435" s="200"/>
+    </row>
+    <row r="436" spans="2:35" s="187" customFormat="1">
+      <c r="B436" s="196"/>
+      <c r="C436" s="200"/>
+      <c r="D436" s="200"/>
+      <c r="E436" s="200"/>
+      <c r="F436" s="200"/>
+      <c r="G436" s="200"/>
+      <c r="H436" s="200"/>
+      <c r="I436" s="200"/>
+      <c r="J436" s="200"/>
+      <c r="K436" s="200"/>
+      <c r="L436" s="200"/>
+      <c r="M436" s="200"/>
+      <c r="N436" s="200"/>
+      <c r="O436" s="200"/>
+      <c r="P436" s="200"/>
+      <c r="Q436" s="200"/>
+      <c r="R436" s="200"/>
+      <c r="S436" s="200"/>
+      <c r="T436" s="200"/>
+      <c r="U436" s="200"/>
+      <c r="V436" s="200"/>
+      <c r="W436" s="200"/>
+      <c r="X436" s="200"/>
+      <c r="Y436" s="200"/>
+      <c r="Z436" s="200"/>
+      <c r="AA436" s="200"/>
+      <c r="AB436" s="200"/>
+      <c r="AC436" s="200"/>
+      <c r="AD436" s="200"/>
+      <c r="AE436" s="200"/>
+      <c r="AF436" s="200"/>
+      <c r="AG436" s="200"/>
+      <c r="AH436" s="200"/>
+      <c r="AI436" s="200"/>
+    </row>
+    <row r="437" spans="2:35" s="187" customFormat="1">
+      <c r="B437" s="196"/>
+      <c r="C437" s="200"/>
+      <c r="D437" s="200"/>
+      <c r="E437" s="200"/>
+      <c r="F437" s="200"/>
+      <c r="G437" s="200"/>
+      <c r="H437" s="200"/>
+      <c r="I437" s="200"/>
+      <c r="J437" s="200"/>
+      <c r="K437" s="200"/>
+      <c r="L437" s="200"/>
+      <c r="M437" s="200"/>
+      <c r="N437" s="200"/>
+      <c r="O437" s="200"/>
+      <c r="P437" s="200"/>
+      <c r="Q437" s="200"/>
+      <c r="R437" s="200"/>
+      <c r="S437" s="200"/>
+      <c r="T437" s="200"/>
+      <c r="U437" s="200"/>
+      <c r="V437" s="200"/>
+      <c r="W437" s="200"/>
+      <c r="X437" s="200"/>
+      <c r="Y437" s="200"/>
+      <c r="Z437" s="200"/>
+      <c r="AA437" s="200"/>
+      <c r="AB437" s="200"/>
+      <c r="AC437" s="200"/>
+      <c r="AD437" s="200"/>
+      <c r="AE437" s="200"/>
+      <c r="AF437" s="200"/>
+      <c r="AG437" s="200"/>
+      <c r="AH437" s="200"/>
+      <c r="AI437" s="200"/>
+    </row>
+    <row r="438" spans="2:35" s="187" customFormat="1">
+      <c r="B438" s="196"/>
+      <c r="C438" s="200"/>
+      <c r="D438" s="200"/>
+      <c r="E438" s="200"/>
+      <c r="F438" s="200"/>
+      <c r="G438" s="200"/>
+      <c r="H438" s="200"/>
+      <c r="I438" s="200"/>
+      <c r="J438" s="200"/>
+      <c r="K438" s="200"/>
+      <c r="L438" s="200"/>
+      <c r="M438" s="200"/>
+      <c r="N438" s="200"/>
+      <c r="O438" s="200"/>
+      <c r="P438" s="200"/>
+      <c r="Q438" s="200"/>
+      <c r="R438" s="200"/>
+      <c r="S438" s="200"/>
+      <c r="T438" s="200"/>
+      <c r="U438" s="200"/>
+      <c r="V438" s="200"/>
+      <c r="W438" s="200"/>
+      <c r="X438" s="200"/>
+      <c r="Y438" s="200"/>
+      <c r="Z438" s="200"/>
+      <c r="AA438" s="200"/>
+      <c r="AB438" s="200"/>
+      <c r="AC438" s="200"/>
+      <c r="AD438" s="200"/>
+      <c r="AE438" s="200"/>
+      <c r="AF438" s="200"/>
+      <c r="AG438" s="200"/>
+      <c r="AH438" s="200"/>
+      <c r="AI438" s="200"/>
+    </row>
+    <row r="439" spans="2:35" s="187" customFormat="1">
+      <c r="B439" s="196"/>
+      <c r="C439" s="200"/>
+      <c r="D439" s="200"/>
+      <c r="E439" s="200"/>
+      <c r="F439" s="200"/>
+      <c r="G439" s="200"/>
+      <c r="H439" s="200"/>
+      <c r="I439" s="200"/>
+      <c r="J439" s="200"/>
+      <c r="K439" s="200"/>
+      <c r="L439" s="200"/>
+      <c r="M439" s="200"/>
+      <c r="N439" s="200"/>
+      <c r="O439" s="200"/>
+      <c r="P439" s="200"/>
+      <c r="Q439" s="200"/>
+      <c r="R439" s="200"/>
+      <c r="S439" s="200"/>
+      <c r="T439" s="200"/>
+      <c r="U439" s="200"/>
+      <c r="V439" s="200"/>
+      <c r="W439" s="200"/>
+      <c r="X439" s="200"/>
+      <c r="Y439" s="200"/>
+      <c r="Z439" s="200"/>
+      <c r="AA439" s="200"/>
+      <c r="AB439" s="200"/>
+      <c r="AC439" s="200"/>
+      <c r="AD439" s="200"/>
+      <c r="AE439" s="200"/>
+      <c r="AF439" s="200"/>
+      <c r="AG439" s="200"/>
+      <c r="AH439" s="200"/>
+      <c r="AI439" s="200"/>
+    </row>
+    <row r="440" spans="2:35" s="187" customFormat="1">
+      <c r="B440" s="196"/>
+      <c r="C440" s="200"/>
+      <c r="D440" s="200"/>
+      <c r="E440" s="200"/>
+      <c r="F440" s="200"/>
+      <c r="G440" s="200"/>
+      <c r="H440" s="200"/>
+      <c r="I440" s="200"/>
+      <c r="J440" s="200"/>
+      <c r="K440" s="200"/>
+      <c r="L440" s="200"/>
+      <c r="M440" s="200"/>
+      <c r="N440" s="200"/>
+      <c r="O440" s="200"/>
+      <c r="P440" s="200"/>
+      <c r="Q440" s="200"/>
+      <c r="R440" s="200"/>
+      <c r="S440" s="200"/>
+      <c r="T440" s="200"/>
+      <c r="U440" s="200"/>
+      <c r="V440" s="200"/>
+      <c r="W440" s="200"/>
+      <c r="X440" s="200"/>
+      <c r="Y440" s="200"/>
+      <c r="Z440" s="200"/>
+      <c r="AA440" s="200"/>
+      <c r="AB440" s="200"/>
+      <c r="AC440" s="200"/>
+      <c r="AD440" s="200"/>
+      <c r="AE440" s="200"/>
+      <c r="AF440" s="200"/>
+      <c r="AG440" s="200"/>
+      <c r="AH440" s="200"/>
+      <c r="AI440" s="200"/>
+    </row>
+    <row r="441" spans="2:35" s="187" customFormat="1">
+      <c r="B441" s="196"/>
+      <c r="C441" s="200"/>
+      <c r="D441" s="200"/>
+      <c r="E441" s="200"/>
+      <c r="F441" s="200"/>
+      <c r="G441" s="200"/>
+      <c r="H441" s="200"/>
+      <c r="I441" s="200"/>
+      <c r="J441" s="200"/>
+      <c r="K441" s="200"/>
+      <c r="L441" s="200"/>
+      <c r="M441" s="200"/>
+      <c r="N441" s="200"/>
+      <c r="O441" s="200"/>
+      <c r="P441" s="200"/>
+      <c r="Q441" s="200"/>
+      <c r="R441" s="200"/>
+      <c r="S441" s="200"/>
+      <c r="T441" s="200"/>
+      <c r="U441" s="200"/>
+      <c r="V441" s="200"/>
+      <c r="W441" s="200"/>
+      <c r="X441" s="200"/>
+      <c r="Y441" s="200"/>
+      <c r="Z441" s="200"/>
+      <c r="AA441" s="200"/>
+      <c r="AB441" s="200"/>
+      <c r="AC441" s="200"/>
+      <c r="AD441" s="200"/>
+      <c r="AE441" s="200"/>
+      <c r="AF441" s="200"/>
+      <c r="AG441" s="200"/>
+      <c r="AH441" s="200"/>
+      <c r="AI441" s="200"/>
+    </row>
+    <row r="442" spans="2:35" s="187" customFormat="1">
+      <c r="B442" s="196"/>
+      <c r="C442" s="200"/>
+      <c r="D442" s="200"/>
+      <c r="E442" s="200"/>
+      <c r="F442" s="200"/>
+      <c r="G442" s="200"/>
+      <c r="H442" s="200"/>
+      <c r="I442" s="200"/>
+      <c r="J442" s="200"/>
+      <c r="K442" s="200"/>
+      <c r="L442" s="200"/>
+      <c r="M442" s="200"/>
+      <c r="N442" s="200"/>
+      <c r="O442" s="200"/>
+      <c r="P442" s="200"/>
+      <c r="Q442" s="200"/>
+      <c r="R442" s="200"/>
+      <c r="S442" s="200"/>
+      <c r="T442" s="200"/>
+      <c r="U442" s="200"/>
+      <c r="V442" s="200"/>
+      <c r="W442" s="200"/>
+      <c r="X442" s="200"/>
+      <c r="Y442" s="200"/>
+      <c r="Z442" s="200"/>
+      <c r="AA442" s="200"/>
+      <c r="AB442" s="200"/>
+      <c r="AC442" s="200"/>
+      <c r="AD442" s="200"/>
+      <c r="AE442" s="200"/>
+      <c r="AF442" s="200"/>
+      <c r="AG442" s="200"/>
+      <c r="AH442" s="200"/>
+      <c r="AI442" s="200"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -12325,64 +12224,64 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.1640625" customWidth="1"/>
+    <col min="1" max="2" width="3.140625" customWidth="1"/>
     <col min="3" max="3" width="46" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
-    <col min="6" max="7" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="7" width="17.7109375" customWidth="1"/>
     <col min="8" max="8" width="55" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.6640625" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" s="209" customFormat="1">
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-    </row>
-    <row r="2" spans="2:9" s="209" customFormat="1">
-      <c r="B2" s="217" t="s">
-        <v>165</v>
-      </c>
-      <c r="C2" s="218"/>
-      <c r="D2" s="218"/>
-      <c r="E2" s="226"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
-    </row>
-    <row r="3" spans="2:9" s="209" customFormat="1">
-      <c r="B3" s="220"/>
-      <c r="C3" s="221"/>
-      <c r="D3" s="221"/>
-      <c r="E3" s="227"/>
-      <c r="F3" s="210"/>
-      <c r="G3" s="210"/>
-    </row>
-    <row r="4" spans="2:9" s="209" customFormat="1">
-      <c r="B4" s="223"/>
-      <c r="C4" s="224"/>
-      <c r="D4" s="224"/>
-      <c r="E4" s="228"/>
-      <c r="F4" s="210"/>
-      <c r="G4" s="210"/>
-    </row>
-    <row r="5" spans="2:9" s="209" customFormat="1" ht="17" thickBot="1">
-      <c r="D5" s="210"/>
-    </row>
-    <row r="6" spans="2:9" s="209" customFormat="1">
-      <c r="B6" s="211"/>
+    <row r="1" spans="2:9" s="203" customFormat="1">
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="204"/>
+      <c r="G1" s="204"/>
+    </row>
+    <row r="2" spans="2:9" s="203" customFormat="1">
+      <c r="B2" s="211" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="212"/>
+      <c r="D2" s="212"/>
+      <c r="E2" s="220"/>
+      <c r="F2" s="204"/>
+      <c r="G2" s="204"/>
+    </row>
+    <row r="3" spans="2:9" s="203" customFormat="1">
+      <c r="B3" s="214"/>
+      <c r="C3" s="215"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="221"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+    </row>
+    <row r="4" spans="2:9" s="203" customFormat="1">
+      <c r="B4" s="217"/>
+      <c r="C4" s="218"/>
+      <c r="D4" s="218"/>
+      <c r="E4" s="222"/>
+      <c r="F4" s="204"/>
+      <c r="G4" s="204"/>
+    </row>
+    <row r="5" spans="2:9" s="203" customFormat="1" ht="17" thickBot="1">
+      <c r="D5" s="204"/>
+    </row>
+    <row r="6" spans="2:9" s="203" customFormat="1">
+      <c r="B6" s="205"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
-      <c r="I6" s="212"/>
+      <c r="I6" s="206"/>
     </row>
     <row r="7" spans="2:9" s="42" customFormat="1" ht="19">
       <c r="B7" s="87"/>
       <c r="C7" s="20" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D7" s="88" t="s">
         <v>5</v>
@@ -12394,7 +12293,7 @@
         <v>4</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H7" s="20" t="s">
         <v>0</v>
@@ -12407,23 +12306,23 @@
     </row>
     <row r="9" spans="2:9" s="42" customFormat="1" ht="20" thickBot="1">
       <c r="B9" s="24"/>
-      <c r="C9" s="213" t="s">
+      <c r="C9" s="207" t="s">
+        <v>165</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="E9" s="208">
+        <v>1.1718999999999999</v>
+      </c>
+      <c r="F9" s="207" t="s">
+        <v>167</v>
+      </c>
+      <c r="G9" s="209">
+        <v>43068</v>
+      </c>
+      <c r="H9" s="210" t="s">
         <v>168</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="E9" s="214">
-        <v>1.1718999999999999</v>
-      </c>
-      <c r="F9" s="213" t="s">
-        <v>170</v>
-      </c>
-      <c r="G9" s="215">
-        <v>43068</v>
-      </c>
-      <c r="H9" s="216" t="s">
-        <v>171</v>
       </c>
       <c r="I9" s="43"/>
     </row>
